--- a/____manager/docs/game.xlsx
+++ b/____manager/docs/game.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="编辑推荐" sheetId="2" r:id="rId2"/>
+    <sheet name="更多小游戏" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +200,19 @@
   <si>
     <t>content/games/10000008/wr/icon.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩法简单,只要左右点击切换伐木工的位置,避免撞到树枝障碍即可！</t>
+  </si>
+  <si>
+    <t>全民寻找房祖名</t>
+  </si>
+  <si>
+    <t>全民寻找房祖名！虽然柯少向龙叔保证不会带坏房祖名,但龙叔强烈要求你找回祖名。</t>
   </si>
 </sst>
 </file>
@@ -684,9 +698,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD9"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -941,19 +955,29 @@
       <c r="A18" s="2">
         <v>10000017</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>10000018</v>
       </c>
+      <c r="B19" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
@@ -1160,8 +1184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1364,4 +1388,38 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/____manager/docs/game.xlsx
+++ b/____manager/docs/game.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="编辑推荐" sheetId="2" r:id="rId2"/>
-    <sheet name="更多小游戏" sheetId="3" r:id="rId3"/>
+    <sheet name="59600.com" sheetId="4" r:id="rId2"/>
+    <sheet name="编辑推荐" sheetId="2" r:id="rId3"/>
+    <sheet name="更多小游戏" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="88">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,13 +214,161 @@
   </si>
   <si>
     <t>全民寻找房祖名！虽然柯少向龙叔保证不会带坏房祖名,但龙叔强烈要求你找回祖名。</t>
+  </si>
+  <si>
+    <t>最强眼力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/454/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔猎手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔猎手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好玩的休闲类游戏恶魔猎手上线了，恶魔猎手讲述的是2020年，核武器污染了整个海洋，大量的鱼群死去，然而出现了一种新的鱼，随后又出现了一批专门捕抓这种鱼的人，你也是其中一员。现在，拿起手中特制的武器，把海洋从恶魔手中解救出来吧！超好玩的恶魔猎手游戏等你来玩。</t>
+  </si>
+  <si>
+    <t>方块历险记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不好玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钢琴打僵尸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>色彩鸟</t>
+  </si>
+  <si>
+    <t>色彩鸟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/437/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击屏幕，小鸟会不断的撞击障碍物。颜色相同时，障碍物被撞会下落；颜色不同时，小鸟则会撞死，障碍物会不断地上升。色彩鸟是一款比较虐心的休闲游戏，非常适合一些喜欢挑战的朋友玩耍，考验大家对时机的把握。大家可以向自己朋友发起挑战，比比谁坚持的久，看看谁才是真正的游戏达人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指终结者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指终结者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/498/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手指终结者是一款全新的休闲游戏。用你的手指去点击左右两边的变色线条，你所控制的小星星就会变成你选择的颜色。游戏画面绚丽多彩犹如彩虹一般，给玩家带来极佳的视觉享受。游戏从易到难分配合理，赶紧来挑战一下吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳狗历险记</t>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/511/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳狗历险记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳狗历险记游戏的玩法通俗易懂，就是控制两只小狗安全的前进，若是不幸任何一只小狗没能跳过陷阱，则游戏结束。当两只的小狗到达了终点则玩家胜利，进入下一个关卡。玩家需要两只手操作两只小狗，分别在屏幕的两边各有一个圆的，玩家点击圆点就能控制小狗跳跃，但是游戏的难度在于两只小狗的步伐是一前一后的，因此玩家需要同时兼顾到两只小狗的合适起跳时间。跳跳狗历险记是一款非常锻炼玩家左右脑的游戏。</t>
+  </si>
+  <si>
+    <t>跳跳猴之大闹天宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/412/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000008/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000009/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000010/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000011/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000012/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000013/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000014/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000015/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000016/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000017/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000018/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000019/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000020/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000021/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000022/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,13 +398,46 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -267,10 +449,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -284,9 +467,37 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -698,9 +909,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -816,7 +1027,7 @@
         <v>10000007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -983,37 +1194,57 @@
       <c r="A20" s="2">
         <v>10000019</v>
       </c>
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="7" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>10000020</v>
       </c>
+      <c r="B21" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>10000021</v>
       </c>
+      <c r="B22" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>10000022</v>
       </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="7" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
@@ -1022,7 +1253,6 @@
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
@@ -1182,10 +1412,230 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="25.25" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="6" customWidth="1"/>
+    <col min="4" max="4" width="19.375" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11">
+        <v>8696233</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11">
+        <v>8696234</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="11">
+        <v>8696235</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="11">
+        <v>8696236</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>8696237</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>8696238</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="11">
+        <v>8696239</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1"/>
+    <hyperlink ref="C5" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="C2" r:id="rId5"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1390,17 +1840,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" customWidth="1"/>
+    <col min="3" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="22.875" customWidth="1"/>
+    <col min="5" max="5" width="37.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1416,6 +1873,321 @@
       <c r="E1" s="1" t="s">
         <v>37</v>
       </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>10000008</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>10000009</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>10000010</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>10000011</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>10000012</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>10000013</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>10000014</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>10000015</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>10000016</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10000017</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>10000018</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>10000019</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="2">
+        <v>10000020</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>10000021</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>10000022</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/____manager/docs/game.xlsx
+++ b/____manager/docs/game.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="59600.com" sheetId="4" r:id="rId2"/>
-    <sheet name="编辑推荐" sheetId="2" r:id="rId3"/>
-    <sheet name="更多小游戏" sheetId="3" r:id="rId4"/>
+    <sheet name="www.h5uc.com " sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="编辑推荐" sheetId="2" r:id="rId5"/>
+    <sheet name="更多小游戏" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,71 +298,153 @@
     <t>跳跳狗历险记游戏的玩法通俗易懂，就是控制两只小狗安全的前进，若是不幸任何一只小狗没能跳过陷阱，则游戏结束。当两只的小狗到达了终点则玩家胜利，进入下一个关卡。玩家需要两只手操作两只小狗，分别在屏幕的两边各有一个圆的，玩家点击圆点就能控制小狗跳跃，但是游戏的难度在于两只小狗的步伐是一前一后的，因此玩家需要同时兼顾到两只小狗的合适起跳时间。跳跳狗历险记是一款非常锻炼玩家左右脑的游戏。</t>
   </si>
   <si>
+    <t>http://www.59600.com/games/412/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000008/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000009/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000010/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000011/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000012/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000013/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000014/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000015/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000016/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000017/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000018/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000019/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000020/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000021/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000022/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市连接</t>
+  </si>
+  <si>
+    <t>点击房子使城市的道路通畅即可过关，有简单、普通、困难三种模式可选。支持PC和iOS系统。</t>
+  </si>
+  <si>
     <t>跳跳猴之大闹天宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.59600.com/games/412/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000008/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000009/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000010/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000011/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000012/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000013/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000014/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000015/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000016/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000017/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000018/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000019/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000020/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000021/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000022/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>跳跳猴之大闹天宫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次齐天大圣想要潜入天宫，他要在不被任何人发现的情况下到达最高层，然后他就可以大闹天宫了。你需要注意辨别各种道具的作用，有些能够帮助你，但是有些却会打乱你的节奏。快来突破层层防守到达最高层，大闹天宫！</t>
+  </si>
+  <si>
+    <t>城市连接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.h5uc.com/game-9234.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.h5uc.com</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点击房子使城市的道路通畅即可过关，有简单、普通、困难三种模式可选。支持</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>PC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>iOS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF222222"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>系统。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.59600.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -493,6 +577,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -909,9 +1002,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B23" sqref="B23"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -920,11 +1013,11 @@
     <col min="2" max="2" width="21.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
     <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2" customWidth="1"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
     <col min="6" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -937,8 +1030,11 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>10000001</v>
       </c>
@@ -952,7 +1048,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>10000002</v>
       </c>
@@ -966,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>10000003</v>
       </c>
@@ -980,7 +1076,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>10000004</v>
       </c>
@@ -994,7 +1090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>10000005</v>
       </c>
@@ -1008,7 +1104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>10000006</v>
       </c>
@@ -1022,7 +1118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>10000007</v>
       </c>
@@ -1036,7 +1132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>10000008</v>
       </c>
@@ -1050,7 +1146,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>10000009</v>
       </c>
@@ -1064,7 +1160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10000010</v>
       </c>
@@ -1078,7 +1174,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>10000011</v>
       </c>
@@ -1092,7 +1188,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10000012</v>
       </c>
@@ -1106,7 +1202,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>10000013</v>
       </c>
@@ -1120,7 +1216,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>10000014</v>
       </c>
@@ -1134,7 +1230,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>10000015</v>
       </c>
@@ -1148,7 +1244,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>10000016</v>
       </c>
@@ -1162,7 +1258,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>10000017</v>
       </c>
@@ -1176,7 +1272,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>10000018</v>
       </c>
@@ -1190,7 +1286,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>10000019</v>
       </c>
@@ -1203,8 +1299,11 @@
       <c r="D20" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>10000020</v>
       </c>
@@ -1217,8 +1316,11 @@
       <c r="D21" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E21" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>10000021</v>
       </c>
@@ -1231,8 +1333,11 @@
       <c r="D22" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E22" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>10000022</v>
       </c>
@@ -1245,25 +1350,45 @@
       <c r="D23" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E23" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>10000023</v>
       </c>
+      <c r="B24" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D24" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>10000024</v>
       </c>
+      <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>10000025</v>
       </c>
@@ -1272,7 +1397,7 @@
       </c>
       <c r="D26" s="3"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>10000026</v>
       </c>
@@ -1281,7 +1406,7 @@
       </c>
       <c r="D27" s="3"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>10000027</v>
       </c>
@@ -1290,7 +1415,7 @@
       </c>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>10000028</v>
       </c>
@@ -1299,7 +1424,7 @@
       </c>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>10000029</v>
       </c>
@@ -1308,7 +1433,7 @@
       </c>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>10000030</v>
       </c>
@@ -1317,7 +1442,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>10000031</v>
       </c>
@@ -1404,9 +1529,16 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E24" r:id="rId1"/>
+    <hyperlink ref="E23" r:id="rId2"/>
+    <hyperlink ref="E22" r:id="rId3"/>
+    <hyperlink ref="E21" r:id="rId4"/>
+    <hyperlink ref="E20" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1414,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1449,10 +1581,10 @@
         <v>8696233</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1631,6 +1763,76 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="20.625" customWidth="1"/>
+    <col min="3" max="3" width="52" customWidth="1"/>
+    <col min="4" max="4" width="36.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>9234</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -1840,7 +2042,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -1888,7 +2090,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1909,7 +2111,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -1930,7 +2132,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -1951,7 +2153,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1972,7 +2174,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1993,7 +2195,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2014,7 +2216,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2035,7 +2237,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2056,7 +2258,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2077,7 +2279,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2098,7 +2300,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2119,7 +2321,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2140,7 +2342,7 @@
         <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2161,7 +2363,7 @@
         <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2182,7 +2384,7 @@
         <v>70</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>

--- a/____manager/docs/game.xlsx
+++ b/____manager/docs/game.xlsx
@@ -10,16 +10,17 @@
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="59600.com" sheetId="4" r:id="rId2"/>
     <sheet name="www.h5uc.com " sheetId="5" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
+    <sheet name="找游戏" sheetId="6" r:id="rId4"/>
     <sheet name="编辑推荐" sheetId="2" r:id="rId5"/>
     <sheet name="更多小游戏" sheetId="3" r:id="rId6"/>
+    <sheet name="最新小游戏合集" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="119">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,10 +297,6 @@
   </si>
   <si>
     <t>跳跳狗历险记游戏的玩法通俗易懂，就是控制两只小狗安全的前进，若是不幸任何一只小狗没能跳过陷阱，则游戏结束。当两只的小狗到达了终点则玩家胜利，进入下一个关卡。玩家需要两只手操作两只小狗，分别在屏幕的两边各有一个圆的，玩家点击圆点就能控制小狗跳跃，但是游戏的难度在于两只小狗的步伐是一前一后的，因此玩家需要同时兼顾到两只小狗的合适起跳时间。跳跳狗历险记是一款非常锻炼玩家左右脑的游戏。</t>
-  </si>
-  <si>
-    <t>http://www.59600.com/games/412/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>content/games/10000008/wr/icon.jpg</t>
@@ -447,12 +444,90 @@
     <t>www.59600.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>content/games/10000014/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000018/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000019/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000020/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000022/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000023/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000024/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/412/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原游戏链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/412/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贱人配对</t>
+  </si>
+  <si>
+    <t>贱人配对html5游戏，进入游戏中出现在屏幕上的是20张背面的图片，需要玩家点击找到两张相同的消除，其中60秒的时间限制。游戏所有的关卡都限定在60秒内，所以一定要快速，并且需要记住你所翻过的图案，游戏中记忆住那些相同的图片是在哪个方向，这样才可以更加快的完成，同样的时间你可以冲刺到多少关呢</t>
+  </si>
+  <si>
+    <t>http://h5.gamedog.cn/games/1079643.html</t>
+  </si>
+  <si>
+    <t>h5.gamedog.cn</t>
+  </si>
+  <si>
+    <t>测测你有没有财运？</t>
+  </si>
+  <si>
+    <t>财神到，小伙伴们快来捡钱！</t>
+  </si>
+  <si>
+    <t>美女啵一个</t>
+  </si>
+  <si>
+    <t>万千美女从中过，偏偏眼瞎啵如花！啵了88个美女也算值得了！求超越！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看你有多老</t>
+  </si>
+  <si>
+    <t>是一款有趣的记忆类小游戏，游戏中你得在相应的时间内将数字大小的顺序给记牢，之后在将它们给逐个点击出来，现在就到游戏中挑战一下吧！！</t>
+  </si>
+  <si>
+    <t>穿越回古代你会是谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果穿越到古代，你会是谁？叫什么？是做什么的？这款测测你穿越到古代叫什么，看看你古代时候是谁哦，一起来测测吧！注意：本游戏纯属娱乐，切勿轻信！</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +578,22 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -537,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -586,6 +677,16 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1004,7 +1105,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1012,12 +1113,13 @@
     <col min="1" max="1" width="11.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="21.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="22.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="9" width="9" style="2"/>
+    <col min="4" max="4" width="32.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34.25" style="2" customWidth="1"/>
+    <col min="6" max="6" width="41" style="2" customWidth="1"/>
+    <col min="7" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1031,10 +1133,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>10000001</v>
       </c>
@@ -1048,7 +1153,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>10000002</v>
       </c>
@@ -1062,7 +1167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>10000003</v>
       </c>
@@ -1076,7 +1181,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>10000004</v>
       </c>
@@ -1090,7 +1195,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>10000005</v>
       </c>
@@ -1104,7 +1209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>10000006</v>
       </c>
@@ -1118,7 +1223,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>10000007</v>
       </c>
@@ -1132,7 +1237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>10000008</v>
       </c>
@@ -1146,7 +1251,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>10000009</v>
       </c>
@@ -1160,7 +1265,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10000010</v>
       </c>
@@ -1174,7 +1279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>10000011</v>
       </c>
@@ -1188,7 +1293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10000012</v>
       </c>
@@ -1202,7 +1307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>10000013</v>
       </c>
@@ -1216,7 +1321,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>10000014</v>
       </c>
@@ -1230,7 +1335,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>10000015</v>
       </c>
@@ -1244,7 +1349,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>10000016</v>
       </c>
@@ -1258,7 +1363,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>10000017</v>
       </c>
@@ -1272,7 +1377,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>10000018</v>
       </c>
@@ -1286,7 +1391,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>10000019</v>
       </c>
@@ -1300,10 +1405,10 @@
         <v>55</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>10000020</v>
       </c>
@@ -1317,10 +1422,10 @@
         <v>62</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>10000021</v>
       </c>
@@ -1334,10 +1439,10 @@
         <v>66</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>10000022</v>
       </c>
@@ -1351,89 +1456,123 @@
         <v>70</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>10000023</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>10000024</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>88</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>10000025</v>
       </c>
+      <c r="B26" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D26" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>10000026</v>
       </c>
+      <c r="B27" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D27" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" s="2">
         <v>10000027</v>
       </c>
+      <c r="B28" s="2" t="s">
+        <v>113</v>
+      </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D28" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" s="2">
         <v>10000028</v>
       </c>
+      <c r="B29" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D29" s="19" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="2">
         <v>10000029</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D30" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" s="2">
         <v>10000030</v>
       </c>
@@ -1442,7 +1581,7 @@
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" s="2">
         <v>10000031</v>
       </c>
@@ -1535,10 +1674,11 @@
     <hyperlink ref="E22" r:id="rId3"/>
     <hyperlink ref="E21" r:id="rId4"/>
     <hyperlink ref="E20" r:id="rId5"/>
+    <hyperlink ref="F24" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
-  <drawing r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <drawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1581,10 +1721,10 @@
         <v>8696233</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1800,13 +1940,13 @@
         <v>9234</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1821,12 +1961,225 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="38" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>10000014</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>10000015</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>10000016</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>10000017</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>10000018</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>10000019</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>10000020</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>10000021</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>10000022</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10000023</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>10000024</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2047,7 +2400,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C16" sqref="C7:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2090,7 +2443,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2111,7 +2464,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2132,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2153,7 +2506,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2174,7 +2527,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2195,7 +2548,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2216,7 +2569,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2237,7 +2590,7 @@
         <v>31</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2258,7 +2611,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2279,7 +2632,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2300,7 +2653,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2321,7 +2674,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2342,7 +2695,7 @@
         <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2363,7 +2716,7 @@
         <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2384,12 +2737,243 @@
         <v>70</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2">
+        <v>10000014</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2">
+        <v>10000015</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>10000016</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
+        <v>10000017</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>10000018</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>10000019</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>10000020</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2">
+        <v>10000021</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2">
+        <v>10000022</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2">
+        <v>10000023</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>10000024</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D13" s="3"/>
+      <c r="E13" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/____manager/docs/game.xlsx
+++ b/____manager/docs/game.xlsx
@@ -1104,8 +1104,8 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/____manager/docs/game.xlsx
+++ b/____manager/docs/game.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="125">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,10 +324,6 @@
   </si>
   <si>
     <t>content/games/10000014/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000015/wr/icon.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,39 +484,66 @@
     <t>贱人配对</t>
   </si>
   <si>
+    <t>http://h5.gamedog.cn/games/1079643.html</t>
+  </si>
+  <si>
+    <t>h5.gamedog.cn</t>
+  </si>
+  <si>
+    <t>测测你有没有财运？</t>
+  </si>
+  <si>
+    <t>财神到，小伙伴们快来捡钱！</t>
+  </si>
+  <si>
+    <t>美女啵一个</t>
+  </si>
+  <si>
+    <t>万千美女从中过，偏偏眼瞎啵如花！啵了88个美女也算值得了！求超越！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看看你有多老</t>
+  </si>
+  <si>
+    <t>是一款有趣的记忆类小游戏，游戏中你得在相应的时间内将数字大小的顺序给记牢，之后在将它们给逐个点击出来，现在就到游戏中挑战一下吧！！</t>
+  </si>
+  <si>
+    <t>穿越回古代你会是谁？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果穿越到古代，你会是谁？叫什么？是做什么的？这款测测你穿越到古代叫什么，看看你古代时候是谁哦，一起来测测吧！注意：本游戏纯属娱乐，切勿轻信！</t>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏有问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贱人配对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>贱人配对html5游戏，进入游戏中出现在屏幕上的是20张背面的图片，需要玩家点击找到两张相同的消除，其中60秒的时间限制。游戏所有的关卡都限定在60秒内，所以一定要快速，并且需要记住你所翻过的图案，游戏中记忆住那些相同的图片是在哪个方向，这样才可以更加快的完成，同样的时间你可以冲刺到多少关呢</t>
-  </si>
-  <si>
-    <t>http://h5.gamedog.cn/games/1079643.html</t>
-  </si>
-  <si>
-    <t>h5.gamedog.cn</t>
-  </si>
-  <si>
-    <t>测测你有没有财运？</t>
-  </si>
-  <si>
-    <t>财神到，小伙伴们快来捡钱！</t>
-  </si>
-  <si>
-    <t>美女啵一个</t>
-  </si>
-  <si>
-    <t>万千美女从中过，偏偏眼瞎啵如花！啵了88个美女也算值得了！求超越！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看看你有多老</t>
-  </si>
-  <si>
-    <t>是一款有趣的记忆类小游戏，游戏中你得在相应的时间内将数字大小的顺序给记牢，之后在将它们给逐个点击出来，现在就到游戏中挑战一下吧！！</t>
-  </si>
-  <si>
-    <t>穿越回古代你会是谁？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果穿越到古代，你会是谁？叫什么？是做什么的？这款测测你穿越到古代叫什么，看看你古代时候是谁哦，一起来测测吧！注意：本游戏纯属娱乐，切勿轻信！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000025/wr/icon.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/454/index.html</t>
+  </si>
+  <si>
+    <t>跳跳狗历险记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/511/index.html</t>
   </si>
 </sst>
 </file>
@@ -1105,21 +1128,22 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D27" sqref="D27"/>
+      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.25" style="2" customWidth="1"/>
-    <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="32.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="39.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="34.25" style="2" customWidth="1"/>
     <col min="6" max="6" width="41" style="2" customWidth="1"/>
-    <col min="7" max="9" width="9" style="2"/>
+    <col min="7" max="7" width="19.125" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1133,13 +1157,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>10000001</v>
       </c>
@@ -1153,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>10000002</v>
       </c>
@@ -1167,7 +1194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>10000003</v>
       </c>
@@ -1181,7 +1208,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>10000004</v>
       </c>
@@ -1195,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>10000005</v>
       </c>
@@ -1209,7 +1236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>10000006</v>
       </c>
@@ -1223,7 +1250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>10000007</v>
       </c>
@@ -1237,7 +1264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>10000008</v>
       </c>
@@ -1251,7 +1278,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>10000009</v>
       </c>
@@ -1265,7 +1292,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10000010</v>
       </c>
@@ -1279,7 +1306,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>10000011</v>
       </c>
@@ -1293,7 +1320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>10000012</v>
       </c>
@@ -1307,7 +1334,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>10000013</v>
       </c>
@@ -1321,7 +1348,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>10000014</v>
       </c>
@@ -1335,7 +1362,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>10000015</v>
       </c>
@@ -1347,6 +1374,9 @@
       </c>
       <c r="D16" s="3" t="s">
         <v>31</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1405,7 +1435,10 @@
         <v>55</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1422,7 +1455,7 @@
         <v>62</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -1439,7 +1472,7 @@
         <v>66</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -1447,7 +1480,7 @@
         <v>10000022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>123</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
@@ -1456,7 +1489,10 @@
         <v>70</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -1464,19 +1500,19 @@
         <v>10000023</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -1484,16 +1520,16 @@
         <v>10000024</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="E25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -1501,19 +1537,19 @@
         <v>10000025</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1521,13 +1557,13 @@
         <v>10000026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1535,13 +1571,13 @@
         <v>10000027</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1549,13 +1585,13 @@
         <v>10000028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1563,13 +1599,13 @@
         <v>10000029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1687,7 +1723,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1721,10 +1757,10 @@
         <v>8696233</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1907,7 +1943,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1940,13 +1976,13 @@
         <v>9234</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1964,11 +2000,12 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
@@ -2006,24 +2043,24 @@
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>10000015</v>
+        <v>10000025</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
+      <c r="D3" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2040,7 +2077,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2057,7 +2094,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2074,7 +2111,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2091,7 +2128,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2108,7 +2145,7 @@
         <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2125,7 +2162,7 @@
         <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2142,7 +2179,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2150,16 +2187,16 @@
         <v>10000023</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2167,21 +2204,22 @@
         <v>10000024</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2400,7 +2438,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C7:C16"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2576,26 +2614,22 @@
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
-        <v>10000015</v>
+        <v>10000025</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>31</v>
+      <c r="D9" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+        <v>121</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
@@ -2611,7 +2645,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2632,7 +2666,7 @@
         <v>47</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2653,7 +2687,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2674,7 +2708,7 @@
         <v>55</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2695,7 +2729,7 @@
         <v>62</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2716,7 +2750,7 @@
         <v>66</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2737,7 +2771,7 @@
         <v>70</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2756,7 +2790,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2798,24 +2832,24 @@
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
-        <v>10000015</v>
+        <v>10000025</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>31</v>
+      <c r="D3" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2832,7 +2866,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2849,7 +2883,7 @@
         <v>47</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2866,7 +2900,7 @@
         <v>49</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2883,7 +2917,7 @@
         <v>55</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2900,7 +2934,7 @@
         <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2917,7 +2951,7 @@
         <v>66</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2934,7 +2968,7 @@
         <v>70</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2942,16 +2976,16 @@
         <v>10000023</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2959,16 +2993,16 @@
         <v>10000024</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>87</v>
-      </c>
       <c r="E12" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">

--- a/____manager/docs/game.xlsx
+++ b/____manager/docs/game.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="129">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,19 +146,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一款简单又考验平面逻辑思维的游戏，操作简单，不过画的时候要一笔呵成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>围住神经猫</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这只跳来跳去发神经的喵最近也是火到不行，赶快来试试围住它，根本停不下来，感觉自己萌萌哒！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一笔画线</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -520,10 +512,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>游戏有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>贱人配对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,6 +532,32 @@
   </si>
   <si>
     <t>http://www.59600.com/games/511/index.html</t>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/412/index.html</t>
+  </si>
+  <si>
+    <t>http://bookor.59600.com/games/8696232/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳猴之空中冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次齐天大圣想要潜入天宫，他要在不被任何人发现的情况下到达最高层，然后他就可以大闹天宫了。你需要注意辨别各种道具的作用，有些能够帮助你，但是有些却会打乱你的节奏。快来突破层层防守到达最高层，大闹天宫！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.59600.com</t>
+  </si>
+  <si>
+    <t>www.59600.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳猴之空中冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1128,7 +1142,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1145,7 +1159,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1157,13 +1171,13 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1185,7 +1199,7 @@
         <v>10000002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -1255,7 +1269,7 @@
         <v>10000007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -1367,16 +1381,19 @@
         <v>10000015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>128</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1384,13 +1401,13 @@
         <v>10000016</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1398,13 +1415,13 @@
         <v>10000017</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1412,13 +1429,13 @@
         <v>10000018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -1426,19 +1443,19 @@
         <v>10000019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1446,16 +1463,16 @@
         <v>10000020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -1463,16 +1480,16 @@
         <v>10000021</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -1480,19 +1497,19 @@
         <v>10000022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -1500,19 +1517,19 @@
         <v>10000023</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="E24" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F24" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -1520,16 +1537,16 @@
         <v>10000024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -1537,19 +1554,19 @@
         <v>10000025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1557,13 +1574,13 @@
         <v>10000026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1571,13 +1588,13 @@
         <v>10000027</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1585,13 +1602,13 @@
         <v>10000028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1599,13 +1616,13 @@
         <v>10000029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1720,10 +1737,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1737,102 +1754,110 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
-        <v>8696233</v>
+        <v>8696232</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
-        <v>8696234</v>
+        <v>8696233</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>68</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
-        <v>8696235</v>
+        <v>8696234</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
+        <v>8696235</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11">
         <v>8696236</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8">
-        <v>8696237</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="8" t="s">
-        <v>57</v>
+      <c r="C6" s="13" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
-        <v>8696238</v>
+        <v>8696237</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>8696238</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="11">
         <v>8696239</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C9" s="3"/>
+      <c r="B9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C10" s="3"/>
@@ -1923,18 +1948,22 @@
     </row>
     <row r="39" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C40" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C8" r:id="rId1"/>
-    <hyperlink ref="C5" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="C2" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId1"/>
+    <hyperlink ref="C6" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId4"/>
+    <hyperlink ref="C3" r:id="rId5"/>
+    <hyperlink ref="C2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1956,19 +1985,19 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1976,13 +2005,13 @@
         <v>9234</v>
       </c>
       <c r="B2" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2014,7 +2043,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2026,7 +2055,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2043,7 +2072,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -2051,16 +2080,16 @@
         <v>10000025</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2068,16 +2097,16 @@
         <v>10000016</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2085,16 +2114,16 @@
         <v>10000017</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2102,16 +2131,16 @@
         <v>10000018</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2119,16 +2148,16 @@
         <v>10000019</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2136,16 +2165,16 @@
         <v>10000020</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2153,16 +2182,16 @@
         <v>10000021</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2170,16 +2199,16 @@
         <v>10000022</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2187,16 +2216,16 @@
         <v>10000023</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2204,16 +2233,16 @@
         <v>10000024</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2242,7 +2271,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2254,7 +2283,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -2271,7 +2300,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2283,7 +2312,7 @@
         <v>10000002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
@@ -2292,7 +2321,7 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2313,7 +2342,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2334,7 +2363,7 @@
         <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2355,7 +2384,7 @@
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2376,7 +2405,7 @@
         <v>13</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2397,7 +2426,7 @@
         <v>15</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2418,7 +2447,7 @@
         <v>17</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2452,7 +2481,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2464,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -2481,7 +2510,7 @@
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2502,7 +2531,7 @@
         <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
@@ -2523,7 +2552,7 @@
         <v>21</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -2544,7 +2573,7 @@
         <v>23</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2565,7 +2594,7 @@
         <v>25</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -2586,7 +2615,7 @@
         <v>29</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2607,7 +2636,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2619,16 +2648,16 @@
         <v>10000025</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -2636,16 +2665,16 @@
         <v>10000016</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2657,16 +2686,16 @@
         <v>10000017</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2678,16 +2707,16 @@
         <v>10000018</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2699,16 +2728,16 @@
         <v>10000019</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -2720,16 +2749,16 @@
         <v>10000020</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -2741,16 +2770,16 @@
         <v>10000021</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -2762,16 +2791,16 @@
         <v>10000022</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2803,7 +2832,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2815,7 +2844,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2832,7 +2861,7 @@
         <v>30</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
@@ -2840,16 +2869,16 @@
         <v>10000025</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2857,16 +2886,16 @@
         <v>10000016</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -2874,16 +2903,16 @@
         <v>10000017</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -2891,16 +2920,16 @@
         <v>10000018</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -2908,16 +2937,16 @@
         <v>10000019</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -2925,16 +2954,16 @@
         <v>10000020</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -2942,16 +2971,16 @@
         <v>10000021</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -2959,16 +2988,16 @@
         <v>10000022</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -2976,16 +3005,16 @@
         <v>10000023</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>89</v>
-      </c>
       <c r="E11" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -2993,16 +3022,16 @@
         <v>10000024</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">

--- a/____manager/docs/game.xlsx
+++ b/____manager/docs/game.xlsx
@@ -1,381 +1,268 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="59600.com" sheetId="4" r:id="rId2"/>
-    <sheet name="www.h5uc.com " sheetId="5" r:id="rId3"/>
-    <sheet name="找游戏" sheetId="6" r:id="rId4"/>
-    <sheet name="编辑推荐" sheetId="2" r:id="rId5"/>
-    <sheet name="更多小游戏" sheetId="3" r:id="rId6"/>
+    <sheet name="59600.com" sheetId="2" r:id="rId2"/>
+    <sheet name="www.h5uc.com " sheetId="3" r:id="rId3"/>
+    <sheet name="找游戏" sheetId="4" r:id="rId4"/>
+    <sheet name="编辑推荐" sheetId="5" r:id="rId5"/>
+    <sheet name="更多小游戏" sheetId="6" r:id="rId6"/>
     <sheet name="最新小游戏合集" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106">
+  <si>
+    <t>编号</t>
+  </si>
   <si>
     <t>名字</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+  </si>
+  <si>
+    <t>原游戏链接</t>
+  </si>
+  <si>
+    <t>备注</t>
   </si>
   <si>
     <t>休闲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2048数字组合是一款非常有意思的益智小游戏。游戏操作简单，通过移动数字，让相同方块不断的叠加，最后让数字到达2048即可取得胜利，非常需要技巧的，有兴趣的朋友来试试哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴打神经猫</t>
   </si>
   <si>
     <t>一款非常具有挑战性的小游戏，可恶的神经猫总是出现在我们的眼前，现在我们就快到游戏中将它们全部都给消灭，赶紧进入游戏中30秒内看你能打爆几只神经猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一个都不能死</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这是一个极度虐心的游戏，这是一个让你欲罢不能的游戏，笨拙小鸟算什么，玩了这款游戏绝对让你上瘾！游戏如名字，两个人一个都不出现问题，叫上你的最佳搭档，来挑战吧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最强电灯泡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最强电灯泡是一款再简单不过的html5游戏，这款小游戏中，虽然操作简单，但是要在最少的步数之内点亮所有灯泡，难度还是非常大的，不过如果你有技巧的话，对你来说就不会是难事啦。你每走一步，系统都会有记录，累计一定的步数后，如果你还无法完成的话，小编真的就无话可说啦，不信那就试试吧!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>XXOO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一款非常考验你反应能力的休闲类型的小游戏，玩家需要根据画面提示来进行操作，如果是X就画个O，如果是O就画个X。玩法很简单，实际上难度很难！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小蜜蜂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>80年代风靡一时的射击游戏，相信玩过FC游戏的玩家都会对这个游戏印象深刻。一起来试一试吧！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最强眼力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金币藏在杯子里，快速转动着。翻转后，你是否能一眼找到它呢？这可是很考验眼力和记忆力的哦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>切水果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>切水果是一款简单的休闲游戏。主要内容是切掉屏幕上不断跳出的各种水果：西瓜，凤梨，猕猴桃，草莓，蓝莓，香蕉，苹果等等。它要求玩家动作速度要快、准。一旦砍到炸弹，游戏就结束了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>最坑人的辨色大比拼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>辨色大比拼通过有趣的心理游戏训练你的眼睛和大脑的反应协调能力…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>读心术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>怪兽读心术，一款非常神奇的读心术测试微信小游戏。据说只有3%的人能识破其中的原理噢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>超级染色体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一款有趣的挑战类小游戏，游戏中你要做的就是将游戏内五颜六色的小方块填充为一种统一的颜色，现在就赶紧进入游戏中看看你能在几步之内就能完成吧！！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>萝莉来了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射击</t>
   </si>
   <si>
     <t>萌主萝莉喜欢打飞机的挑战，是不是宅男都会很兴奋啊。一款完全女性视角的飞行射击类游戏，萌妹子教你怎么打飞机，还不赶紧来试试！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>射击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滚滚足球</t>
+  </si>
+  <si>
+    <t>滚滚足球这款有关于足球的html5游戏，在这款游戏中为玩家提供了丰富的关卡需要你让足球可以射门进球，其中在第一关的时候还会给出叫你操作的提示。游戏以清爽的画面、鲜艳的色彩呈现，喜欢的玩家可以加入其中挑战一关关不同难度的关卡，能不能全部都射门成功就要看你操作的方式是否正确了</t>
   </si>
   <si>
     <t>看你有多色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚滚足球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>滚滚足球这款有关于足球的html5游戏，在这款游戏中为玩家提供了丰富的关卡需要你让足球可以射门进球，其中在第一关的时候还会给出叫你操作的提示。游戏以清爽的画面、鲜艳的色彩呈现，喜欢的玩家可以加入其中挑战一关关不同难度的关卡，能不能全部都射门成功就要看你操作的方式是否正确了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一款基于Html5技术、挑战人类眼球对颜色的分辨能力、好玩易上手的小游戏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳猴之空中冒险</t>
+  </si>
+  <si>
+    <t>这次齐天大圣想要潜入天宫，他要在不被任何人发现的情况下到达最高层，然后他就可以大闹天宫了。你需要注意辨别各种道具的作用，有些能够帮助你，但是有些却会打乱你的节奏。快来突破层层防守到达最高层，大闹天宫！</t>
+  </si>
+  <si>
+    <t>www.59600.com</t>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/412/index.html</t>
   </si>
   <si>
     <t>围住神经猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>这只跳来跳去发神经的喵最近也是火到不行，赶快来试试围住它，根本停不下来，感觉自己萌萌哒！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴打神经猫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砍树</t>
+  </si>
+  <si>
+    <t>玩法简单,只要左右点击切换伐木工的位置,避免撞到树枝障碍即可！</t>
+  </si>
+  <si>
+    <t>全民寻找房祖名</t>
+  </si>
+  <si>
+    <t>全民寻找房祖名！虽然柯少向龙叔保证不会带坏房祖名,但龙叔强烈要求你找回祖名。</t>
+  </si>
+  <si>
+    <t>恶魔猎手</t>
+  </si>
+  <si>
+    <t>好玩的休闲类游戏恶魔猎手上线了，恶魔猎手讲述的是2020年，核武器污染了整个海洋，大量的鱼群死去，然而出现了一种新的鱼，随后又出现了一批专门捕抓这种鱼的人，你也是其中一员。现在，拿起手中特制的武器，把海洋从恶魔手中解救出来吧！超好玩的恶魔猎手游戏等你来玩。</t>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/454/index.html</t>
+  </si>
+  <si>
+    <t>色彩鸟</t>
+  </si>
+  <si>
+    <t>点击屏幕，小鸟会不断的撞击障碍物。颜色相同时，障碍物被撞会下落；颜色不同时，小鸟则会撞死，障碍物会不断地上升。色彩鸟是一款比较虐心的休闲游戏，非常适合一些喜欢挑战的朋友玩耍，考验大家对时机的把握。大家可以向自己朋友发起挑战，比比谁坚持的久，看看谁才是真正的游戏达人。</t>
+  </si>
+  <si>
+    <t>手指终结者</t>
+  </si>
+  <si>
+    <t>手指终结者是一款全新的休闲游戏。用你的手指去点击左右两边的变色线条，你所控制的小星星就会变成你选择的颜色。游戏画面绚丽多彩犹如彩虹一般，给玩家带来极佳的视觉享受。游戏从易到难分配合理，赶紧来挑战一下吧。</t>
+  </si>
+  <si>
+    <t>跳跳狗历险记</t>
+  </si>
+  <si>
+    <t>跳跳狗历险记游戏的玩法通俗易懂，就是控制两只小狗安全的前进，若是不幸任何一只小狗没能跳过陷阱，则游戏结束。当两只的小狗到达了终点则玩家胜利，进入下一个关卡。玩家需要两只手操作两只小狗，分别在屏幕的两边各有一个圆的，玩家点击圆点就能控制小狗跳跃，但是游戏的难度在于两只小狗的步伐是一前一后的，因此玩家需要同时兼顾到两只小狗的合适起跳时间。跳跳狗历险记是一款非常锻炼玩家左右脑的游戏。</t>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/511/index.html</t>
+  </si>
+  <si>
+    <t>跳跳猴之大闹天宫</t>
+  </si>
+  <si>
+    <t>城市连接</t>
+  </si>
+  <si>
+    <t>点击房子使城市的道路通畅即可过关，有简单、普通、困难三种模式可选。支持PC和iOS系统。</t>
+  </si>
+  <si>
+    <t>www.h5uc.com</t>
+  </si>
+  <si>
+    <t>贱人配对</t>
+  </si>
+  <si>
+    <t>贱人配对html5游戏，进入游戏中出现在屏幕上的是20张背面的图片，需要玩家点击找到两张相同的消除，其中60秒的时间限制。游戏所有的关卡都限定在60秒内，所以一定要快速，并且需要记住你所翻过的图案，游戏中记忆住那些相同的图片是在哪个方向，这样才可以更加快的完成，同样的时间你可以冲刺到多少关呢</t>
+  </si>
+  <si>
+    <t>h5.gamedog.cn</t>
+  </si>
+  <si>
+    <t>http://h5.gamedog.cn/games/1079643.html</t>
+  </si>
+  <si>
+    <t>测测你有没有财运？</t>
+  </si>
+  <si>
+    <t>财神到，小伙伴们快来捡钱！</t>
+  </si>
+  <si>
+    <t>美女啵一个</t>
+  </si>
+  <si>
+    <t>万千美女从中过，偏偏眼瞎啵如花！啵了88个美女也算值得了！求超越！</t>
+  </si>
+  <si>
+    <t>看看你有多老</t>
+  </si>
+  <si>
+    <t>是一款有趣的记忆类小游戏，游戏中你得在相应的时间内将数字大小的顺序给记牢，之后在将它们给逐个点击出来，现在就到游戏中挑战一下吧！！</t>
+  </si>
+  <si>
+    <t>穿越回古代你会是谁？</t>
+  </si>
+  <si>
+    <t>如果穿越到古代，你会是谁？叫什么？是做什么的？这款测测你穿越到古代叫什么，看看你古代时候是谁哦，一起来测测吧！注意：本游戏纯属娱乐，切勿轻信！</t>
+  </si>
+  <si>
+    <t>链接</t>
   </si>
   <si>
     <t>图标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000001/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000002/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000003/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000004/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000005/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000006/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000007/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000008/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>砍树</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩法简单,只要左右点击切换伐木工的位置,避免撞到树枝障碍即可！</t>
-  </si>
-  <si>
-    <t>全民寻找房祖名</t>
-  </si>
-  <si>
-    <t>全民寻找房祖名！虽然柯少向龙叔保证不会带坏房祖名,但龙叔强烈要求你找回祖名。</t>
-  </si>
-  <si>
-    <t>最强眼力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.59600.com/games/454/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔猎手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恶魔猎手</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>好玩的休闲类游戏恶魔猎手上线了，恶魔猎手讲述的是2020年，核武器污染了整个海洋，大量的鱼群死去，然而出现了一种新的鱼，随后又出现了一批专门捕抓这种鱼的人，你也是其中一员。现在，拿起手中特制的武器，把海洋从恶魔手中解救出来吧！超好玩的恶魔猎手游戏等你来玩。</t>
+  </si>
+  <si>
+    <t>http://bookor.59600.com/games/8696232/index.html</t>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/498/index.html</t>
+  </si>
+  <si>
+    <t>http://www.59600.com/games/437/index.html</t>
+  </si>
+  <si>
+    <t>钢琴打僵尸</t>
+  </si>
+  <si>
+    <t>不好玩</t>
   </si>
   <si>
     <t>方块历险记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>不好玩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钢琴打僵尸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>色彩鸟</t>
-  </si>
-  <si>
-    <t>色彩鸟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.59600.com/games/437/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击屏幕，小鸟会不断的撞击障碍物。颜色相同时，障碍物被撞会下落；颜色不同时，小鸟则会撞死，障碍物会不断地上升。色彩鸟是一款比较虐心的休闲游戏，非常适合一些喜欢挑战的朋友玩耍，考验大家对时机的把握。大家可以向自己朋友发起挑战，比比谁坚持的久，看看谁才是真正的游戏达人。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指终结者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指终结者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.59600.com/games/498/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>手指终结者是一款全新的休闲游戏。用你的手指去点击左右两边的变色线条，你所控制的小星星就会变成你选择的颜色。游戏画面绚丽多彩犹如彩虹一般，给玩家带来极佳的视觉享受。游戏从易到难分配合理，赶紧来挑战一下吧。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跳狗历险记</t>
-  </si>
-  <si>
-    <t>http://www.59600.com/games/511/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跳狗历险记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跳狗历险记游戏的玩法通俗易懂，就是控制两只小狗安全的前进，若是不幸任何一只小狗没能跳过陷阱，则游戏结束。当两只的小狗到达了终点则玩家胜利，进入下一个关卡。玩家需要两只手操作两只小狗，分别在屏幕的两边各有一个圆的，玩家点击圆点就能控制小狗跳跃，但是游戏的难度在于两只小狗的步伐是一前一后的，因此玩家需要同时兼顾到两只小狗的合适起跳时间。跳跳狗历险记是一款非常锻炼玩家左右脑的游戏。</t>
-  </si>
-  <si>
-    <t>content/games/10000008/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000009/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000010/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000011/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000012/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000013/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000014/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000016/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000017/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000018/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000019/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000020/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000021/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000022/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城市连接</t>
-  </si>
-  <si>
-    <t>点击房子使城市的道路通畅即可过关，有简单、普通、困难三种模式可选。支持PC和iOS系统。</t>
-  </si>
-  <si>
-    <t>跳跳猴之大闹天宫</t>
-  </si>
-  <si>
-    <t>跳跳猴之大闹天宫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这次齐天大圣想要潜入天宫，他要在不被任何人发现的情况下到达最高层，然后他就可以大闹天宫了。你需要注意辨别各种道具的作用，有些能够帮助你，但是有些却会打乱你的节奏。快来突破层层防守到达最高层，大闹天宫！</t>
-  </si>
-  <si>
-    <t>城市连接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://www.h5uc.com/game-9234.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>www.h5uc.com</t>
   </si>
   <si>
     <r>
@@ -383,7 +270,6 @@
         <sz val="9"/>
         <color rgb="FF222222"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点击房子使城市的道路通畅即可过关，有简单、普通、困难三种模式可选。支持</t>
@@ -393,7 +279,7 @@
         <sz val="9"/>
         <color rgb="FF222222"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>PC</t>
     </r>
@@ -402,7 +288,6 @@
         <sz val="9"/>
         <color rgb="FF222222"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和</t>
@@ -412,7 +297,7 @@
         <sz val="9"/>
         <color rgb="FF222222"/>
         <rFont val="Consolas"/>
-        <family val="3"/>
+        <charset val="134"/>
       </rPr>
       <t>iOS</t>
     </r>
@@ -421,161 +306,99 @@
         <sz val="9"/>
         <color rgb="FF222222"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>www.59600.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>content/games/10000014/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000025/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000016/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000017/wr/icon.jpg</t>
   </si>
   <si>
     <t>content/games/10000018/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>content/games/10000019/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>content/games/10000020/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000021/wr/icon.jpg</t>
   </si>
   <si>
     <t>content/games/10000022/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>content/games/10000023/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>content/games/10000024/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.59600.com/games/412/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原游戏链接</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.59600.com/games/412/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贱人配对</t>
-  </si>
-  <si>
-    <t>http://h5.gamedog.cn/games/1079643.html</t>
-  </si>
-  <si>
-    <t>h5.gamedog.cn</t>
-  </si>
-  <si>
-    <t>测测你有没有财运？</t>
-  </si>
-  <si>
-    <t>财神到，小伙伴们快来捡钱！</t>
-  </si>
-  <si>
-    <t>美女啵一个</t>
-  </si>
-  <si>
-    <t>万千美女从中过，偏偏眼瞎啵如花！啵了88个美女也算值得了！求超越！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看看你有多老</t>
-  </si>
-  <si>
-    <t>是一款有趣的记忆类小游戏，游戏中你得在相应的时间内将数字大小的顺序给记牢，之后在将它们给逐个点击出来，现在就到游戏中挑战一下吧！！</t>
-  </si>
-  <si>
-    <t>穿越回古代你会是谁？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如果穿越到古代，你会是谁？叫什么？是做什么的？这款测测你穿越到古代叫什么，看看你古代时候是谁哦，一起来测测吧！注意：本游戏纯属娱乐，切勿轻信！</t>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贱人配对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贱人配对html5游戏，进入游戏中出现在屏幕上的是20张背面的图片，需要玩家点击找到两张相同的消除，其中60秒的时间限制。游戏所有的关卡都限定在60秒内，所以一定要快速，并且需要记住你所翻过的图案，游戏中记忆住那些相同的图片是在哪个方向，这样才可以更加快的完成，同样的时间你可以冲刺到多少关呢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content/games/10000025/wr/icon.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.59600.com/games/454/index.html</t>
-  </si>
-  <si>
-    <t>跳跳狗历险记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.59600.com/games/511/index.html</t>
-  </si>
-  <si>
-    <t>http://www.59600.com/games/412/index.html</t>
-  </si>
-  <si>
-    <t>http://bookor.59600.com/games/8696232/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跳猴之空中冒险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这次齐天大圣想要潜入天宫，他要在不被任何人发现的情况下到达最高层，然后他就可以大闹天宫了。你需要注意辨别各种道具的作用，有些能够帮助你，但是有些却会打乱你的节奏。快来突破层层防守到达最高层，大闹天宫！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>www.59600.com</t>
-  </si>
-  <si>
-    <t>www.59600.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跳猴之空中冒险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content/games/10000001/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000002/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000003/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000004/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000005/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000006/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000007/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000008/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000009/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000010/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000011/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000012/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000013/wr/icon.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -584,35 +407,19 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -620,24 +427,186 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -647,12 +616,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -660,14 +809,253 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -676,75 +1064,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -753,15 +1179,15 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="1133475"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="16087725" y="1133475"/>
+          <a:ext cx="184150" cy="264160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,7 +1224,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -807,15 +1233,15 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="1133475"/>
-          <a:ext cx="184731" cy="264560"/>
+          <a:off x="7515225" y="1095375"/>
+          <a:ext cx="184150" cy="264160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,7 +1320,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -929,7 +1355,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1137,15 +1563,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="11.375" style="2" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="2" customWidth="1"/>
@@ -1157,30 +1585,30 @@
     <col min="8" max="9" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="20.25" customHeight="1" spans="1:4">
       <c r="A2" s="2">
         <v>10000001</v>
       </c>
@@ -1188,794 +1616,796 @@
         <v>2048</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="2">
         <v>10000002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="2">
         <v>10000003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="2">
         <v>10000004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="2">
         <v>10000005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="2">
         <v>10000006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="2">
         <v>10000007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="2">
         <v>10000008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="2">
         <v>10000009</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="2">
         <v>10000010</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="2">
         <v>10000011</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="2">
         <v>10000012</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" ht="16.5" spans="1:4">
       <c r="A14" s="2">
         <v>10000013</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="2">
         <v>10000014</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>10000015</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>10000016</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>10000017</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>10000018</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>10000019</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>93</v>
+        <v>7</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>10000020</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>10000021</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+      <c r="E22" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>10000022</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>120</v>
+        <v>53</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>93</v>
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>10000023</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" s="2">
         <v>10000024</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="1:6">
       <c r="A26" s="2">
         <v>10000025</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>117</v>
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>10000026</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>10000027</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>10000028</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>10000029</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D30" s="20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>10000030</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="2">
         <v>10000031</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>10000032</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>10000033</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>10000034</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>10000035</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:3">
       <c r="A37" s="2">
         <v>10000036</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="2">
         <v>10000037</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="2">
         <v>10000038</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="2">
         <v>10000039</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="2">
         <v>10000040</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1"/>
-    <hyperlink ref="E23" r:id="rId2"/>
-    <hyperlink ref="E22" r:id="rId3"/>
-    <hyperlink ref="E21" r:id="rId4"/>
-    <hyperlink ref="E20" r:id="rId5"/>
-    <hyperlink ref="F24" r:id="rId6"/>
+    <hyperlink ref="E24" r:id="rId2" display="www.59600.com"/>
+    <hyperlink ref="E23" r:id="rId2" display="www.59600.com"/>
+    <hyperlink ref="E22" r:id="rId2" display="www.59600.com"/>
+    <hyperlink ref="E21" r:id="rId2" display="www.59600.com"/>
+    <hyperlink ref="E20" r:id="rId2" display="www.59600.com"/>
+    <hyperlink ref="F24" r:id="rId3" display="http://www.59600.com/games/412/index.html"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" s="11" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
       <c r="A2" s="11">
         <v>8696232</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" s="11" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
       <c r="A3" s="11">
         <v>8696233</v>
       </c>
-      <c r="B3" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" s="11" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
       <c r="A4" s="11">
         <v>8696234</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" s="11" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
       <c r="A5" s="11">
         <v>8696235</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" s="11" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
       <c r="A6" s="11">
         <v>8696236</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="B6" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" s="12" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
+      <c r="A7" s="12">
         <v>8696237</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="B7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" s="12" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
+      <c r="A8" s="12">
         <v>8696238</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" s="11" customFormat="1" ht="34.5" customHeight="1" spans="1:3">
       <c r="A9" s="11">
         <v>8696239</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="3:3">
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" s="2" customFormat="1" spans="3:3">
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" s="2" customFormat="1" spans="3:3">
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" s="2" customFormat="1" spans="3:3">
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" s="2" customFormat="1" spans="3:3">
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" s="2" customFormat="1" spans="3:3">
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" s="2" customFormat="1" spans="3:3">
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" s="2" customFormat="1" spans="3:3">
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" s="2" customFormat="1" spans="3:3">
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" s="2" customFormat="1" spans="3:3">
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" s="2" customFormat="1" spans="3:3">
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" s="2" customFormat="1" spans="3:3">
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" s="2" customFormat="1" spans="3:3">
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" s="2" customFormat="1" spans="3:3">
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" s="2" customFormat="1" spans="3:3">
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" s="2" customFormat="1" spans="3:3">
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" s="2" customFormat="1" spans="3:3">
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="27" s="2" customFormat="1" spans="3:3">
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="28" s="2" customFormat="1" spans="3:3">
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="29" s="2" customFormat="1" spans="3:3">
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="30" s="2" customFormat="1" spans="3:3">
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="31" s="2" customFormat="1" spans="3:3">
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="32" s="2" customFormat="1" spans="3:3">
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="33" s="2" customFormat="1" spans="3:3">
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="34" s="2" customFormat="1" spans="3:3">
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" s="2" customFormat="1" spans="3:3">
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" s="2" customFormat="1" spans="3:3">
       <c r="C36" s="3"/>
     </row>
-    <row r="37" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" s="2" customFormat="1" spans="3:3">
       <c r="C37" s="3"/>
     </row>
-    <row r="38" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" s="2" customFormat="1" spans="3:3">
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="39" s="2" customFormat="1" spans="3:3">
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="40" s="2" customFormat="1" spans="3:3">
       <c r="C40" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C3" r:id="rId5"/>
-    <hyperlink ref="C2" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId1" display="http://www.59600.com/games/454/index.html"/>
+    <hyperlink ref="C6" r:id="rId2" display="http://www.59600.com/games/437/index.html"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://www.59600.com/games/498/index.html"/>
+    <hyperlink ref="C4" r:id="rId4" display="http://www.59600.com/games/511/index.html"/>
+    <hyperlink ref="C3" r:id="rId5" display="http://www.59600.com/games/412/index.html"/>
+    <hyperlink ref="C2" r:id="rId6" display="http://bookor.59600.com/games/8696232/index.html"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -1983,310 +2413,312 @@
     <col min="4" max="4" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>49</v>
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" ht="32.25" customHeight="1" spans="1:4">
       <c r="A2" s="3">
         <v>9234</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>92</v>
+      <c r="B2" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" display="http://www.h5uc.com/game-9234.html"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
     <col min="4" max="4" width="22.625" customWidth="1"/>
     <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>10000014</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
       <c r="A3" s="2">
         <v>10000025</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>117</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>10000016</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>10000017</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>10000018</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>10000019</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>53</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>10000020</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>10000021</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>10000022</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10000023</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>87</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>10000024</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:9">
       <c r="A2" s="2">
         <v>10000001</v>
       </c>
@@ -2294,160 +2726,160 @@
         <v>2048</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>10000002</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>10000003</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>10000004</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>39</v>
+        <v>96</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>10000005</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>40</v>
+        <v>97</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>10000006</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>10000007</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>10000008</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
@@ -2455,352 +2887,353 @@
       <c r="I9" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
     <col min="3" max="3" width="21.625" customWidth="1"/>
     <col min="4" max="4" width="22.875" customWidth="1"/>
     <col min="5" max="5" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>10000008</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="2">
         <v>10000009</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>10000010</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>10000011</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>10000012</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" ht="16.5" spans="1:9">
       <c r="A7" s="2">
         <v>10000013</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>10000014</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" ht="16.5" spans="1:5">
       <c r="A9" s="2">
         <v>10000025</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>117</v>
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>10000016</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>10000017</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>10000018</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>10000019</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>53</v>
+        <v>7</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>10000020</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>10000021</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>10000022</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -2808,239 +3241,240 @@
       <c r="I16" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
     <col min="5" max="5" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>10000014</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:5">
       <c r="A3" s="2">
         <v>10000025</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>117</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>10000016</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>10000017</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>10000018</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>10000019</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>53</v>
+        <v>7</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>10000020</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>10000021</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>10000022</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10000023</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>87</v>
+        <v>7</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>10000024</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5">
       <c r="D13" s="3"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/____manager/docs/game.xlsx
+++ b/____manager/docs/game.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="136">
   <si>
     <t>名字</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,29 +534,56 @@
     <t>http://www.59600.com/games/511/index.html</t>
   </si>
   <si>
+    <t>http://bookor.59600.com/games/8696232/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳猴之空中冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这次齐天大圣想要潜入天宫，他要在不被任何人发现的情况下到达最高层，然后他就可以大闹天宫了。你需要注意辨别各种道具的作用，有些能够帮助你，但是有些却会打乱你的节奏。快来突破层层防守到达最高层，大闹天宫！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>www.59600.com</t>
+  </si>
+  <si>
+    <t>www.59600.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跳跳猴之空中冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>http://www.59600.com/games/412/index.html</t>
-  </si>
-  <si>
-    <t>http://bookor.59600.com/games/8696232/index.html</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跳猴之空中冒险</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这次齐天大圣想要潜入天宫，他要在不被任何人发现的情况下到达最高层，然后他就可以大闹天宫了。你需要注意辨别各种道具的作用，有些能够帮助你，但是有些却会打乱你的节奏。快来突破层层防守到达最高层，大闹天宫！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>www.59600.com</t>
-  </si>
-  <si>
-    <t>www.59600.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳跳猴之空中冒险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昆虫最疯狂</t>
+  </si>
+  <si>
+    <t>昆虫最疯狂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://bookor.59600.com/games/8696229/index.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校花来找茬</t>
+  </si>
+  <si>
+    <t>找茬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m.3366.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各高校的校花你认识多少？现在就进入游戏中对比下她们照片里都有哪些不一样的地方吧！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1142,7 +1169,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomLeft" activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1381,19 +1408,19 @@
         <v>10000015</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1472,7 +1499,7 @@
         <v>60</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -1629,6 +1656,9 @@
       <c r="A31" s="2">
         <v>10000030</v>
       </c>
+      <c r="B31" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="C31" s="2" t="s">
         <v>3</v>
       </c>
@@ -1638,10 +1668,18 @@
       <c r="A32" s="2">
         <v>10000031</v>
       </c>
+      <c r="B32" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="C32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="2">
@@ -1728,19 +1766,20 @@
     <hyperlink ref="E21" r:id="rId4"/>
     <hyperlink ref="E20" r:id="rId5"/>
     <hyperlink ref="F24" r:id="rId6"/>
+    <hyperlink ref="F16" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
-  <drawing r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1771,96 +1810,104 @@
     </row>
     <row r="2" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="11">
-        <v>8696232</v>
+        <v>8696229</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11">
-        <v>8696233</v>
+        <v>8696232</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11">
-        <v>8696234</v>
+        <v>8696233</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11">
-        <v>8696235</v>
+        <v>8696234</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11">
+        <v>8696235</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="11">
         <v>8696236</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B7" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C7" s="13" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
-        <v>8696237</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
-        <v>8696238</v>
+        <v>8696237</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11">
+    <row r="9" spans="1:5" s="8" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>8696238</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="11" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="11">
         <v>8696239</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C10" s="13" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="3"/>
@@ -1951,19 +1998,23 @@
     </row>
     <row r="40" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="3:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="C41" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C9" r:id="rId1"/>
-    <hyperlink ref="C6" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C4" r:id="rId4"/>
-    <hyperlink ref="C3" r:id="rId5"/>
-    <hyperlink ref="C2" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/____manager/docs/game.xlsx
+++ b/____manager/docs/game.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="7"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="更多小游戏" sheetId="6" r:id="rId6"/>
     <sheet name="最新小游戏合集" sheetId="7" r:id="rId7"/>
     <sheet name="找茬系列" sheetId="8" r:id="rId8"/>
+    <sheet name="全部编辑推荐" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
   <si>
     <t>编号</t>
   </si>
@@ -417,18 +418,79 @@
   <si>
     <t>content/games/10000032/wr/icon.jpg</t>
   </si>
+  <si>
+    <r>
+      <t>content/games/100000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <charset val="134"/>
+      </rPr>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/wr/icon.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>content/games/100000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <charset val="134"/>
+      </rPr>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF800080"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>/wr/icon.jpg</t>
+    </r>
+  </si>
+  <si>
+    <t>content/games/10000026/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000027/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000028/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000029/wr/icon.jpg</t>
+  </si>
+  <si>
+    <t>content/games/10000030/wr/icon.jpg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +507,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="微软雅黑"/>
@@ -452,9 +536,10 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -471,18 +556,24 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -494,7 +585,46 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,65 +639,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -577,7 +648,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -590,9 +661,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,16 +686,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -656,7 +726,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,13 +744,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -686,13 +786,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +816,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,31 +864,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -758,85 +900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -850,25 +920,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -889,11 +955,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,26 +1002,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -942,192 +1012,207 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1139,25 +1224,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1617,19 +1693,19 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="5" customWidth="1"/>
-    <col min="2" max="2" width="28.25" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="39.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="34.25" style="5" customWidth="1"/>
-    <col min="6" max="6" width="41" style="5" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="5" customWidth="1"/>
-    <col min="8" max="9" width="9" style="5"/>
+    <col min="1" max="1" width="11.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="39.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="41" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="20.25" spans="1:7">
@@ -1656,568 +1732,568 @@
       </c>
     </row>
     <row r="2" ht="20.25" customHeight="1" spans="1:4">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>10000001</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>2048</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>10000002</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>10000003</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>10000004</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>10000005</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>10000006</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>10000007</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>10000008</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>10000009</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>10000010</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>10000011</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>10000012</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" ht="16.5" spans="1:4">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>10000013</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="10" t="s">
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>10000014</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>10000015</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>10000016</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="C17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>10000017</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>10000018</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="C19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>10000019</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>10000020</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="C21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E21" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="5">
+      <c r="A22" s="3">
         <v>10000021</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="C22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5">
+      <c r="A23" s="3">
         <v>10000022</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="8" t="s">
+      <c r="C23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="21" t="s">
+      <c r="E23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5">
+      <c r="A24" s="3">
         <v>10000023</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="21" t="s">
+      <c r="E24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="5">
+      <c r="A25" s="3">
         <v>10000024</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="C25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" ht="16.5" spans="1:6">
-      <c r="A26" s="5">
+      <c r="A26" s="3">
         <v>10000025</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="C26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="5">
+      <c r="A27" s="3">
         <v>10000026</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="C27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="5">
+      <c r="A28" s="3">
         <v>10000027</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="C28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="5">
+      <c r="A29" s="3">
         <v>10000028</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="5">
+      <c r="A30" s="3">
         <v>10000029</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="23" t="s">
+      <c r="C30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="5">
+      <c r="A31" s="3">
         <v>10000030</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="6"/>
+      <c r="C31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
-      <c r="A32" s="3">
+      <c r="A32" s="12">
         <v>10000031</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
-      <c r="A33" s="3">
+      <c r="A33" s="12">
         <v>10000032</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="5">
+      <c r="A34" s="3">
         <v>10000033</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="6"/>
+      <c r="C34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="7"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="5">
+      <c r="A35" s="3">
         <v>10000034</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="6"/>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="5">
+      <c r="A36" s="3">
         <v>10000035</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="6"/>
+      <c r="C36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="7"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="5">
+      <c r="A37" s="3">
         <v>10000036</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="5">
+      <c r="A38" s="3">
         <v>10000037</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="5">
+      <c r="A39" s="3">
         <v>10000038</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="5">
+      <c r="A40" s="3">
         <v>10000039</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="5">
+      <c r="A41" s="3">
         <v>10000040</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2251,7 +2327,7 @@
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="16" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="21" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
@@ -2263,7 +2339,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2273,199 +2349,199 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" s="14" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A2" s="14">
+    <row r="2" s="19" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+      <c r="A2" s="19">
         <v>8696229</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="3" s="14" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A3" s="14">
+    <row r="3" s="19" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+      <c r="A3" s="19">
         <v>8696232</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="23" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" s="14" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A4" s="14">
+    <row r="4" s="19" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+      <c r="A4" s="19">
         <v>8696233</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="14" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A5" s="14">
+    <row r="5" s="19" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+      <c r="A5" s="19">
         <v>8696234</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" s="14" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A6" s="14">
+    <row r="6" s="19" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+      <c r="A6" s="19">
         <v>8696235</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="23" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" s="14" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A7" s="14">
+    <row r="7" s="19" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+      <c r="A7" s="19">
         <v>8696236</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="23" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" s="15" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
-      <c r="A8" s="15">
+    <row r="8" s="20" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
+      <c r="A8" s="20">
         <v>8696237</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="25"/>
+      <c r="D8" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="9" s="15" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
-      <c r="A9" s="15">
+    <row r="9" s="20" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
+      <c r="A9" s="20">
         <v>8696238</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="25"/>
+      <c r="D9" s="20" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" s="14" customFormat="1" ht="34.5" customHeight="1" spans="1:3">
-      <c r="A10" s="14">
+    <row r="10" s="19" customFormat="1" ht="34.5" customHeight="1" spans="1:3">
+      <c r="A10" s="19">
         <v>8696239</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" spans="3:3">
-      <c r="C11" s="6"/>
-    </row>
-    <row r="12" s="5" customFormat="1" spans="3:3">
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" s="5" customFormat="1" spans="3:3">
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" s="5" customFormat="1" spans="3:3">
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" s="5" customFormat="1" spans="3:3">
-      <c r="C15" s="6"/>
-    </row>
-    <row r="16" s="5" customFormat="1" spans="3:3">
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" s="5" customFormat="1" spans="3:3">
-      <c r="C17" s="6"/>
-    </row>
-    <row r="18" s="5" customFormat="1" spans="3:3">
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" s="5" customFormat="1" spans="3:3">
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" s="5" customFormat="1" spans="3:3">
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" s="5" customFormat="1" spans="3:3">
-      <c r="C21" s="6"/>
-    </row>
-    <row r="22" s="5" customFormat="1" spans="3:3">
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="3:3">
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" s="5" customFormat="1" spans="3:3">
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" s="5" customFormat="1" spans="3:3">
-      <c r="C25" s="6"/>
-    </row>
-    <row r="26" s="5" customFormat="1" spans="3:3">
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" s="5" customFormat="1" spans="3:3">
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" s="5" customFormat="1" spans="3:3">
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" s="5" customFormat="1" spans="3:3">
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" s="5" customFormat="1" spans="3:3">
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" s="5" customFormat="1" spans="3:3">
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" s="5" customFormat="1" spans="3:3">
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" s="5" customFormat="1" spans="3:3">
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" s="5" customFormat="1" spans="3:3">
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" s="5" customFormat="1" spans="3:3">
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" s="5" customFormat="1" spans="3:3">
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" s="5" customFormat="1" spans="3:3">
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" s="5" customFormat="1" spans="3:3">
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" s="5" customFormat="1" spans="3:3">
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" s="5" customFormat="1" spans="3:3">
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" s="5" customFormat="1" spans="3:3">
-      <c r="C41" s="6"/>
+    <row r="11" s="3" customFormat="1" spans="3:3">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" s="3" customFormat="1" spans="3:3">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="3:3">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="3:3">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="3:3">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" s="3" customFormat="1" spans="3:3">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="3:3">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="3:3">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="3:3">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="3:3">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="3:3">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="3:3">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="3:3">
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="3:3">
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="3:3">
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="3:3">
+      <c r="C26" s="7"/>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="3:3">
+      <c r="C27" s="7"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="3:3">
+      <c r="C28" s="7"/>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="3:3">
+      <c r="C29" s="7"/>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="3:3">
+      <c r="C30" s="7"/>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="3:3">
+      <c r="C31" s="7"/>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="3:3">
+      <c r="C32" s="7"/>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="3:3">
+      <c r="C33" s="7"/>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="3:3">
+      <c r="C34" s="7"/>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="3:3">
+      <c r="C35" s="7"/>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="3:3">
+      <c r="C36" s="7"/>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="3:3">
+      <c r="C37" s="7"/>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="3:3">
+      <c r="C38" s="7"/>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="3:3">
+      <c r="C39" s="7"/>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="3:3">
+      <c r="C40" s="7"/>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="3:3">
+      <c r="C41" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2507,7 +2583,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="16" t="s">
         <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -2518,16 +2594,16 @@
       </c>
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:4">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>9234</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2547,7 +2623,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2577,189 +2653,189 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>10000014</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>10000025</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>10000016</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>10000017</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>10000018</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>10000019</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>10000020</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>10000021</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>10000022</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>10000023</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>10000024</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2776,7 +2852,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2806,172 +2882,172 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>10000001</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <v>2048</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>10000002</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>10000003</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>10000004</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>10000005</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>10000006</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>10000007</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>10000008</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3017,315 +3093,315 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>10000008</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>10000009</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>10000010</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>10000011</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>10000012</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" ht="16.5" spans="1:9">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>10000013</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10" t="s">
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>10000014</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" ht="16.5" spans="1:5">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>10000025</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>10000016</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>10000017</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="6" t="s">
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>10000018</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>10000019</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="8" t="s">
+      <c r="C13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>10000020</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="6" t="s">
+      <c r="C14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>10000021</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>10000022</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3369,195 +3445,195 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>10000014</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="6" t="s">
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:5">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>10000025</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>10000016</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>10000017</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>10000018</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>10000019</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>10000020</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>10000021</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>10000022</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="7" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>10000023</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="8" t="s">
+      <c r="C11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="7" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>10000024</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="C12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="13" spans="4:5">
-      <c r="D13" s="6"/>
-      <c r="E13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3571,7 +3647,7 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -3602,46 +3678,298 @@
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
+      <c r="A2" s="12">
+        <v>10000031</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
+      <c r="A3" s="12">
+        <v>10000032</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="32.875" customWidth="1"/>
+    <col min="2" max="2" width="32.375" customWidth="1"/>
+    <col min="3" max="3" width="19.25" customWidth="1"/>
+    <col min="4" max="4" width="29.75" customWidth="1"/>
+    <col min="5" max="5" width="44.5" customWidth="1"/>
+    <col min="6" max="6" width="36" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3">
-        <v>10000031</v>
+        <v>10000023</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="6"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9">
       <c r="A3" s="3">
-        <v>10000032</v>
+        <v>10000024</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>116</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:9">
+      <c r="A4" s="3">
+        <v>10000025</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3">
+        <v>10000026</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3">
+        <v>10000027</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3">
+        <v>10000028</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3">
+        <v>10000029</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" ht="27" customHeight="1" spans="1:9">
+      <c r="A9" s="3">
+        <v>10000030</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
+      <c r="A10" s="12">
+        <v>10000031</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
+      <c r="A11" s="12">
+        <v>10000032</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/____manager/docs/game.xlsx
+++ b/____manager/docs/game.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
   <si>
     <t>编号</t>
   </si>
@@ -262,6 +262,15 @@
   </si>
   <si>
     <t>h.4399.com/</t>
+  </si>
+  <si>
+    <t>六角拼拼</t>
+  </si>
+  <si>
+    <t>六角拼拼，是一款比2048六边形更好玩的小游戏!将不同色块拼在一起，三个色块即可消除进化成其他颜色!超级好玩，快来试试吧。</t>
+  </si>
+  <si>
+    <t>http://m.xiaopi.com/</t>
   </si>
   <si>
     <t>链接</t>
@@ -374,7 +383,7 @@
     <t>content/games/10000024/wr/icon.jpg</t>
   </si>
   <si>
-    <t>content/games/10000001/wr/icon.jpg</t>
+    <t>content/games/10000033/wr/icon.jpg</t>
   </si>
   <si>
     <t>content/games/10000002/wr/icon.jpg</t>
@@ -419,17 +428,6 @@
     <t>content/games/10000032/wr/icon.jpg</t>
   </si>
   <si>
-    <r>
-      <t>content/games/100000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF800080"/>
-        <charset val="134"/>
-      </rPr>
-      <t>23</t>
-    </r>
     <r>
       <rPr>
         <u/>
@@ -438,17 +436,13 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>/wr/icon.jpg</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>content/games/100000</t>
     </r>
     <r>
       <rPr>
         <sz val="11"/>
         <color rgb="FF800080"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>24</t>
@@ -487,10 +481,10 @@
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,23 +501,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -542,6 +522,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +540,52 @@
       <color rgb="FF222222"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -571,68 +603,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,7 +626,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -668,35 +686,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -726,150 +726,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -882,7 +738,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,7 +792,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +900,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,52 +920,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,16 +951,60 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1008,25 +1017,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1035,135 +1035,135 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1172,47 +1172,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1224,17 +1218,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1363,7 +1360,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7515225" y="1095375"/>
+          <a:off x="7515225" y="1219200"/>
           <a:ext cx="184150" cy="264160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1691,9 +1688,9 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD33"/>
+      <selection pane="bottomLeft" activeCell="A34" sqref="$A34:$XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1741,7 +1738,7 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1755,7 +1752,7 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1769,7 +1766,7 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1783,7 +1780,7 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1797,7 +1794,7 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1811,7 +1808,7 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1825,7 +1822,7 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1839,7 +1836,7 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1853,7 +1850,7 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1867,7 +1864,7 @@
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1881,7 +1878,7 @@
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1895,7 +1892,7 @@
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1909,7 +1906,7 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1923,7 +1920,7 @@
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1937,13 +1934,13 @@
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="24" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1957,7 +1954,7 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1971,7 +1968,7 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1985,7 +1982,7 @@
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1999,10 +1996,10 @@
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -2019,10 +2016,10 @@
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2036,10 +2033,10 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="24" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2053,10 +2050,10 @@
       <c r="C23" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2073,13 +2070,13 @@
       <c r="C24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="24" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2093,7 +2090,7 @@
       <c r="C25" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="3" t="s">
@@ -2110,7 +2107,7 @@
       <c r="C26" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E26" s="3" t="s">
@@ -2130,7 +2127,7 @@
       <c r="C27" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2144,7 +2141,7 @@
       <c r="C28" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2158,7 +2155,7 @@
       <c r="C29" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2172,7 +2169,7 @@
       <c r="C30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="8" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2186,58 +2183,66 @@
       <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
-      <c r="A32" s="12">
+      <c r="A32" s="9">
         <v>10000031</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
-      <c r="A33" s="12">
+      <c r="A33" s="9">
         <v>10000032</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" ht="27" customHeight="1" spans="1:5">
       <c r="A34" s="3">
         <v>10000033</v>
       </c>
+      <c r="B34" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C34" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3">
@@ -2246,7 +2251,7 @@
       <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="4"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3">
@@ -2255,7 +2260,7 @@
       <c r="C36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3">
@@ -2327,7 +2332,7 @@
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="30.5" style="19" customWidth="1"/>
     <col min="4" max="4" width="19.375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
@@ -2339,209 +2344,209 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>80</v>
+      <c r="C1" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" s="19" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A2" s="19">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" s="17" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+      <c r="A2" s="17">
         <v>8696229</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="23" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" s="19" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A3" s="19">
+      <c r="C2" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" s="17" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+      <c r="A3" s="17">
         <v>8696232</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" s="19" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A4" s="19">
+      <c r="C3" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" s="17" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+      <c r="A4" s="17">
         <v>8696233</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="19" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A5" s="19">
+    <row r="5" s="17" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+      <c r="A5" s="17">
         <v>8696234</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" s="19" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A6" s="19">
+    <row r="6" s="17" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+      <c r="A6" s="17">
         <v>8696235</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="23" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" s="19" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
-      <c r="A7" s="19">
+      <c r="C6" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" s="17" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+      <c r="A7" s="17">
         <v>8696236</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" s="20" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
-      <c r="A8" s="20">
+      <c r="C7" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" s="18" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
+      <c r="A8" s="18">
         <v>8696237</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" s="20" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
-      <c r="A9" s="20">
+      <c r="B8" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" s="18" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
+      <c r="A9" s="18">
         <v>8696238</v>
       </c>
-      <c r="B9" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" s="19" customFormat="1" ht="34.5" customHeight="1" spans="1:3">
-      <c r="A10" s="19">
+      <c r="B9" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" s="17" customFormat="1" ht="34.5" customHeight="1" spans="1:3">
+      <c r="A10" s="17">
         <v>8696239</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="21" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" spans="3:3">
-      <c r="C11" s="7"/>
+      <c r="C11" s="4"/>
     </row>
     <row r="12" s="3" customFormat="1" spans="3:3">
-      <c r="C12" s="7"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" s="3" customFormat="1" spans="3:3">
-      <c r="C13" s="7"/>
+      <c r="C13" s="4"/>
     </row>
     <row r="14" s="3" customFormat="1" spans="3:3">
-      <c r="C14" s="7"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" s="3" customFormat="1" spans="3:3">
-      <c r="C15" s="7"/>
+      <c r="C15" s="4"/>
     </row>
     <row r="16" s="3" customFormat="1" spans="3:3">
-      <c r="C16" s="7"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" s="3" customFormat="1" spans="3:3">
-      <c r="C17" s="7"/>
+      <c r="C17" s="4"/>
     </row>
     <row r="18" s="3" customFormat="1" spans="3:3">
-      <c r="C18" s="7"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" s="3" customFormat="1" spans="3:3">
-      <c r="C19" s="7"/>
+      <c r="C19" s="4"/>
     </row>
     <row r="20" s="3" customFormat="1" spans="3:3">
-      <c r="C20" s="7"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" s="3" customFormat="1" spans="3:3">
-      <c r="C21" s="7"/>
+      <c r="C21" s="4"/>
     </row>
     <row r="22" s="3" customFormat="1" spans="3:3">
-      <c r="C22" s="7"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" s="3" customFormat="1" spans="3:3">
-      <c r="C23" s="7"/>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" s="3" customFormat="1" spans="3:3">
-      <c r="C24" s="7"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" s="3" customFormat="1" spans="3:3">
-      <c r="C25" s="7"/>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" s="3" customFormat="1" spans="3:3">
-      <c r="C26" s="7"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" s="3" customFormat="1" spans="3:3">
-      <c r="C27" s="7"/>
+      <c r="C27" s="4"/>
     </row>
     <row r="28" s="3" customFormat="1" spans="3:3">
-      <c r="C28" s="7"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" s="3" customFormat="1" spans="3:3">
-      <c r="C29" s="7"/>
+      <c r="C29" s="4"/>
     </row>
     <row r="30" s="3" customFormat="1" spans="3:3">
-      <c r="C30" s="7"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" s="3" customFormat="1" spans="3:3">
-      <c r="C31" s="7"/>
+      <c r="C31" s="4"/>
     </row>
     <row r="32" s="3" customFormat="1" spans="3:3">
-      <c r="C32" s="7"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" s="3" customFormat="1" spans="3:3">
-      <c r="C33" s="7"/>
+      <c r="C33" s="4"/>
     </row>
     <row r="34" s="3" customFormat="1" spans="3:3">
-      <c r="C34" s="7"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" s="3" customFormat="1" spans="3:3">
-      <c r="C35" s="7"/>
+      <c r="C35" s="4"/>
     </row>
     <row r="36" s="3" customFormat="1" spans="3:3">
-      <c r="C36" s="7"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" s="3" customFormat="1" spans="3:3">
-      <c r="C37" s="7"/>
+      <c r="C37" s="4"/>
     </row>
     <row r="38" s="3" customFormat="1" spans="3:3">
-      <c r="C38" s="7"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" s="3" customFormat="1" spans="3:3">
-      <c r="C39" s="7"/>
+      <c r="C39" s="4"/>
     </row>
     <row r="40" s="3" customFormat="1" spans="3:3">
-      <c r="C40" s="7"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" s="3" customFormat="1" spans="3:3">
-      <c r="C41" s="7"/>
+      <c r="C41" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2583,28 +2588,28 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>80</v>
+      <c r="C1" s="14" t="s">
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" ht="32.25" customHeight="1" spans="1:4">
-      <c r="A2" s="7">
+      <c r="A2" s="4">
         <v>9234</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>90</v>
+      <c r="C2" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2649,7 +2654,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2662,11 +2667,11 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>91</v>
+      <c r="E2" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" ht="16.5" spans="1:5">
@@ -2679,11 +2684,11 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>92</v>
+      <c r="E3" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2696,11 +2701,11 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>93</v>
+      <c r="E4" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2713,11 +2718,11 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>94</v>
+      <c r="E5" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2730,11 +2735,11 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>95</v>
+      <c r="E6" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2747,11 +2752,11 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>96</v>
+      <c r="E7" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2764,11 +2769,11 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>97</v>
+      <c r="E8" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2781,11 +2786,11 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>98</v>
+      <c r="E9" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2798,11 +2803,11 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>99</v>
+      <c r="E10" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2815,11 +2820,11 @@
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>100</v>
+      <c r="E11" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2832,11 +2837,11 @@
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>101</v>
+      <c r="E12" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2851,8 +2856,8 @@
   <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2878,24 +2883,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:9">
+      <c r="A2" s="3">
+        <v>10000033</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A2" s="3">
-        <v>10000001</v>
-      </c>
-      <c r="B2" s="3">
-        <v>2048</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>102</v>
+      <c r="E2" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -2912,11 +2917,11 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>103</v>
+      <c r="E3" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -2933,11 +2938,11 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>104</v>
+      <c r="E4" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -2954,11 +2959,11 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>105</v>
+      <c r="E5" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -2975,11 +2980,11 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>106</v>
+      <c r="E6" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -2996,11 +3001,11 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>107</v>
+      <c r="E7" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3017,11 +3022,11 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>108</v>
+      <c r="E8" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3038,11 +3043,11 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>109</v>
+      <c r="E9" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3089,7 +3094,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -3102,11 +3107,11 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>109</v>
+      <c r="E2" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -3123,11 +3128,11 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>110</v>
+      <c r="E3" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3144,11 +3149,11 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>111</v>
+      <c r="E4" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3165,11 +3170,11 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>112</v>
+      <c r="E5" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3186,11 +3191,11 @@
       <c r="C6" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>113</v>
+      <c r="E6" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3207,11 +3212,11 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>114</v>
+      <c r="E7" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3228,11 +3233,11 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>91</v>
+      <c r="E8" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3249,11 +3254,11 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>92</v>
+      <c r="E9" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3266,11 +3271,11 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>93</v>
+      <c r="E10" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -3287,11 +3292,11 @@
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>94</v>
+      <c r="E11" s="4" t="s">
+        <v>97</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -3308,11 +3313,11 @@
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>95</v>
+      <c r="E12" s="4" t="s">
+        <v>98</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -3329,11 +3334,11 @@
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>96</v>
+      <c r="E13" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -3350,11 +3355,11 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>97</v>
+      <c r="E14" s="4" t="s">
+        <v>100</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -3371,11 +3376,11 @@
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>98</v>
+      <c r="E15" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -3392,11 +3397,11 @@
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>99</v>
+      <c r="E16" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -3413,13 +3418,13 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
@@ -3441,25 +3446,29 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:9">
+      <c r="A2" s="3">
+        <v>10000033</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
-        <v>10000014</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>91</v>
-      </c>
+      <c r="E2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" ht="16.5" spans="1:5">
       <c r="A3" s="3">
@@ -3471,11 +3480,11 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>92</v>
+      <c r="E3" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3488,11 +3497,11 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>93</v>
+      <c r="E4" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3505,11 +3514,11 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>94</v>
+      <c r="E5" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3522,11 +3531,11 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>95</v>
+      <c r="E6" s="4" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3539,11 +3548,11 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>96</v>
+      <c r="E7" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3556,11 +3565,11 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>97</v>
+      <c r="E8" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3573,11 +3582,11 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>98</v>
+      <c r="E9" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3590,11 +3599,11 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>99</v>
+      <c r="E10" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3607,11 +3616,11 @@
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>100</v>
+      <c r="E11" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3624,16 +3633,16 @@
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>101</v>
+      <c r="E12" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="4:5">
-      <c r="D13" s="7"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3674,50 +3683,50 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
-      <c r="A2" s="12">
+      <c r="A2" s="9">
         <v>10000031</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
+      <c r="E2" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
-      <c r="A3" s="12">
+      <c r="A3" s="9">
         <v>10000032</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="E3" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3731,7 +3740,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3758,26 +3767,26 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" ht="27" customHeight="1" spans="1:9">
+      <c r="A2" s="3">
+        <v>10000033</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="3">
-        <v>10000023</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="6"/>
+      <c r="E2" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
@@ -3792,11 +3801,11 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -3813,11 +3822,11 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>92</v>
+      <c r="E4" s="5" t="s">
+        <v>95</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -3834,11 +3843,11 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>119</v>
+      <c r="E5" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3855,11 +3864,11 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>120</v>
+      <c r="E6" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -3876,11 +3885,11 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>121</v>
+      <c r="E7" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -3897,11 +3906,11 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>122</v>
+      <c r="E8" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -3918,11 +3927,11 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>123</v>
+      <c r="E9" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3930,46 +3939,46 @@
       <c r="I9" s="3"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
-      <c r="A10" s="12">
+      <c r="A10" s="9">
         <v>10000031</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
+      <c r="E10" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
-      <c r="A11" s="12">
+      <c r="A11" s="9">
         <v>10000032</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
+      <c r="E11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/____manager/docs/game.xlsx
+++ b/____manager/docs/game.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\git\ccvv.github.io\____manager\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="128">
   <si>
     <t>编号</t>
   </si>
@@ -317,7 +322,7 @@
         <sz val="9"/>
         <color rgb="FF222222"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>PC</t>
     </r>
@@ -335,7 +340,7 @@
         <sz val="9"/>
         <color rgb="FF222222"/>
         <rFont val="Consolas"/>
-        <charset val="134"/>
+        <family val="3"/>
       </rPr>
       <t>iOS</t>
     </r>
@@ -384,9 +389,6 @@
   </si>
   <si>
     <t>content/games/10000033/wr/icon.jpg</t>
-  </si>
-  <si>
-    <t>content/games/10000002/wr/icon.jpg</t>
   </si>
   <si>
     <t>content/games/10000003/wr/icon.jpg</t>
@@ -471,20 +473,26 @@
     <t>content/games/10000029/wr/icon.jpg</t>
   </si>
   <si>
-    <t>content/games/10000030/wr/icon.jpg</t>
+    <t>忍者小猪跑酷</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>　　忍者小猪跑酷是一款html5游戏，猪这个动物在人们眼中一直都是笨拙迟钝的，可是游戏中的小猪可是相当的敏捷，它从小习武，现在已经是个非常优秀的忍者的，看他矫健的身姿，真的是太灵活了!</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://m.xiaopi.com/game/14150.html</t>
+  </si>
+  <si>
+    <t>http://www.xiaopi.com/game/uploadfile/2015/1204/20151204105803718.png</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="29">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,7 +533,7 @@
       <sz val="9"/>
       <color rgb="FF222222"/>
       <name val="Consolas"/>
-      <charset val="134"/>
+      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -550,142 +558,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
@@ -698,8 +570,23 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,7 +595,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -724,194 +611,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -919,251 +620,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1175,7 +637,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1206,7 +668,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1221,76 +683,44 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="10" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1299,7 +729,7 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1344,7 +774,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -1353,7 +783,7 @@
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="184731" cy="264560"/>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="文本框 1"/>
         <xdr:cNvSpPr txBox="1"/>
@@ -1683,29 +1113,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A34" sqref="$A34:$XFD34"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" style="3" customWidth="1"/>
     <col min="2" max="2" width="28.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="34.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="39.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="34.25" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.75" style="3" customWidth="1"/>
     <col min="6" max="6" width="41" style="3" customWidth="1"/>
     <col min="7" max="7" width="19.125" style="3" customWidth="1"/>
     <col min="8" max="9" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:7">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1728,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1" spans="1:4">
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>10000001</v>
       </c>
@@ -1742,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>10000002</v>
       </c>
@@ -1756,7 +1184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>10000003</v>
       </c>
@@ -1770,7 +1198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>10000004</v>
       </c>
@@ -1784,7 +1212,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>10000005</v>
       </c>
@@ -1798,7 +1226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>10000006</v>
       </c>
@@ -1812,7 +1240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>10000007</v>
       </c>
@@ -1826,7 +1254,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>10000008</v>
       </c>
@@ -1840,7 +1268,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>10000009</v>
       </c>
@@ -1854,7 +1282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10000010</v>
       </c>
@@ -1868,7 +1296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10000011</v>
       </c>
@@ -1882,7 +1310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10000012</v>
       </c>
@@ -1896,7 +1324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="1:4">
+    <row r="14" spans="1:7" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>10000013</v>
       </c>
@@ -1910,7 +1338,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>10000014</v>
       </c>
@@ -1924,7 +1352,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>10000015</v>
       </c>
@@ -1944,7 +1372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>10000016</v>
       </c>
@@ -1958,7 +1386,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
         <v>10000017</v>
       </c>
@@ -1972,7 +1400,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
         <v>10000018</v>
       </c>
@@ -1986,7 +1414,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>10000019</v>
       </c>
@@ -2006,7 +1434,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
         <v>10000020</v>
       </c>
@@ -2023,7 +1451,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
         <v>10000021</v>
       </c>
@@ -2040,7 +1468,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
         <v>10000022</v>
       </c>
@@ -2060,7 +1488,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
         <v>10000023</v>
       </c>
@@ -2080,7 +1508,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="3">
         <v>10000024</v>
       </c>
@@ -2097,7 +1525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="1:6">
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="3">
         <v>10000025</v>
       </c>
@@ -2117,7 +1545,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="3">
         <v>10000026</v>
       </c>
@@ -2131,7 +1559,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="3">
         <v>10000027</v>
       </c>
@@ -2145,7 +1573,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="3">
         <v>10000028</v>
       </c>
@@ -2159,7 +1587,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
         <v>10000029</v>
       </c>
@@ -2173,7 +1601,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="3">
         <v>10000030</v>
       </c>
@@ -2185,7 +1613,7 @@
       </c>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
+    <row r="32" spans="1:9" s="2" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9">
         <v>10000031</v>
       </c>
@@ -2206,7 +1634,7 @@
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
+    <row r="33" spans="1:9" s="2" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9">
         <v>10000032</v>
       </c>
@@ -2227,7 +1655,7 @@
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
     </row>
-    <row r="34" ht="27" customHeight="1" spans="1:5">
+    <row r="34" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3">
         <v>10000033</v>
       </c>
@@ -2244,16 +1672,24 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3">
         <v>10000034</v>
       </c>
+      <c r="B35" s="25" t="s">
+        <v>124</v>
+      </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="3">
         <v>10000035</v>
       </c>
@@ -2262,7 +1698,7 @@
       </c>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A37" s="3">
         <v>10000036</v>
       </c>
@@ -2270,7 +1706,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="3">
         <v>10000037</v>
       </c>
@@ -2278,7 +1714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="3">
         <v>10000038</v>
       </c>
@@ -2286,7 +1722,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="3">
         <v>10000039</v>
       </c>
@@ -2294,7 +1730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="3">
         <v>10000040</v>
       </c>
@@ -2303,32 +1739,31 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId2" display="www.59600.com"/>
-    <hyperlink ref="E23" r:id="rId2" display="www.59600.com"/>
-    <hyperlink ref="E22" r:id="rId2" display="www.59600.com"/>
-    <hyperlink ref="E21" r:id="rId2" display="www.59600.com"/>
-    <hyperlink ref="E20" r:id="rId2" display="www.59600.com"/>
-    <hyperlink ref="F24" r:id="rId3" display="http://www.59600.com/games/412/index.html"/>
-    <hyperlink ref="F16" r:id="rId3" display="http://www.59600.com/games/412/index.html"/>
+    <hyperlink ref="E24" r:id="rId1"/>
+    <hyperlink ref="E23" r:id="rId2"/>
+    <hyperlink ref="E22" r:id="rId3"/>
+    <hyperlink ref="E21" r:id="rId4"/>
+    <hyperlink ref="E20" r:id="rId5"/>
+    <hyperlink ref="F24" r:id="rId6"/>
+    <hyperlink ref="F16" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
     <col min="2" max="2" width="25.25" customWidth="1"/>
@@ -2337,7 +1772,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +1789,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" s="17" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+    <row r="2" spans="1:5" s="17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17">
         <v>8696229</v>
       </c>
@@ -2365,7 +1800,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" s="17" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+    <row r="3" spans="1:5" s="17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="17">
         <v>8696232</v>
       </c>
@@ -2376,7 +1811,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" s="17" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+    <row r="4" spans="1:5" s="17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="17">
         <v>8696233</v>
       </c>
@@ -2387,7 +1822,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" s="17" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+    <row r="5" spans="1:5" s="17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="17">
         <v>8696234</v>
       </c>
@@ -2398,7 +1833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" s="17" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+    <row r="6" spans="1:5" s="17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="17">
         <v>8696235</v>
       </c>
@@ -2409,7 +1844,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" s="17" customFormat="1" ht="38.25" customHeight="1" spans="1:3">
+    <row r="7" spans="1:5" s="17" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="17">
         <v>8696236</v>
       </c>
@@ -2420,7 +1855,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="8" s="18" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
+    <row r="8" spans="1:5" s="18" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="18">
         <v>8696237</v>
       </c>
@@ -2432,7 +1867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" s="18" customFormat="1" ht="38.25" customHeight="1" spans="1:4">
+    <row r="9" spans="1:5" s="18" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="18">
         <v>8696238</v>
       </c>
@@ -2444,7 +1879,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" s="17" customFormat="1" ht="34.5" customHeight="1" spans="1:3">
+    <row r="10" spans="1:5" s="17" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="17">
         <v>8696239</v>
       </c>
@@ -2455,125 +1890,124 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="3:3">
+    <row r="11" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C11" s="4"/>
     </row>
-    <row r="12" s="3" customFormat="1" spans="3:3">
+    <row r="12" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C12" s="4"/>
     </row>
-    <row r="13" s="3" customFormat="1" spans="3:3">
+    <row r="13" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C13" s="4"/>
     </row>
-    <row r="14" s="3" customFormat="1" spans="3:3">
+    <row r="14" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C14" s="4"/>
     </row>
-    <row r="15" s="3" customFormat="1" spans="3:3">
+    <row r="15" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C15" s="4"/>
     </row>
-    <row r="16" s="3" customFormat="1" spans="3:3">
+    <row r="16" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C16" s="4"/>
     </row>
-    <row r="17" s="3" customFormat="1" spans="3:3">
+    <row r="17" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C17" s="4"/>
     </row>
-    <row r="18" s="3" customFormat="1" spans="3:3">
+    <row r="18" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C18" s="4"/>
     </row>
-    <row r="19" s="3" customFormat="1" spans="3:3">
+    <row r="19" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C19" s="4"/>
     </row>
-    <row r="20" s="3" customFormat="1" spans="3:3">
+    <row r="20" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" s="3" customFormat="1" spans="3:3">
+    <row r="21" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C21" s="4"/>
     </row>
-    <row r="22" s="3" customFormat="1" spans="3:3">
+    <row r="22" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C22" s="4"/>
     </row>
-    <row r="23" s="3" customFormat="1" spans="3:3">
+    <row r="23" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C23" s="4"/>
     </row>
-    <row r="24" s="3" customFormat="1" spans="3:3">
+    <row r="24" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C24" s="4"/>
     </row>
-    <row r="25" s="3" customFormat="1" spans="3:3">
+    <row r="25" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C25" s="4"/>
     </row>
-    <row r="26" s="3" customFormat="1" spans="3:3">
+    <row r="26" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C26" s="4"/>
     </row>
-    <row r="27" s="3" customFormat="1" spans="3:3">
+    <row r="27" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C27" s="4"/>
     </row>
-    <row r="28" s="3" customFormat="1" spans="3:3">
+    <row r="28" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="4"/>
     </row>
-    <row r="29" s="3" customFormat="1" spans="3:3">
+    <row r="29" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C29" s="4"/>
     </row>
-    <row r="30" s="3" customFormat="1" spans="3:3">
+    <row r="30" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C30" s="4"/>
     </row>
-    <row r="31" s="3" customFormat="1" spans="3:3">
+    <row r="31" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C31" s="4"/>
     </row>
-    <row r="32" s="3" customFormat="1" spans="3:3">
+    <row r="32" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C32" s="4"/>
     </row>
-    <row r="33" s="3" customFormat="1" spans="3:3">
+    <row r="33" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C33" s="4"/>
     </row>
-    <row r="34" s="3" customFormat="1" spans="3:3">
+    <row r="34" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C34" s="4"/>
     </row>
-    <row r="35" s="3" customFormat="1" spans="3:3">
+    <row r="35" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C35" s="4"/>
     </row>
-    <row r="36" s="3" customFormat="1" spans="3:3">
+    <row r="36" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C36" s="4"/>
     </row>
-    <row r="37" s="3" customFormat="1" spans="3:3">
+    <row r="37" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C37" s="4"/>
     </row>
-    <row r="38" s="3" customFormat="1" spans="3:3">
+    <row r="38" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C38" s="4"/>
     </row>
-    <row r="39" s="3" customFormat="1" spans="3:3">
+    <row r="39" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C39" s="4"/>
     </row>
-    <row r="40" s="3" customFormat="1" spans="3:3">
+    <row r="40" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C40" s="4"/>
     </row>
-    <row r="41" s="3" customFormat="1" spans="3:3">
+    <row r="41" spans="3:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C41" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C10" r:id="rId1" display="http://www.59600.com/games/454/index.html"/>
-    <hyperlink ref="C7" r:id="rId2" display="http://www.59600.com/games/437/index.html"/>
-    <hyperlink ref="C6" r:id="rId3" display="http://www.59600.com/games/498/index.html"/>
-    <hyperlink ref="C5" r:id="rId4" display="http://www.59600.com/games/511/index.html"/>
-    <hyperlink ref="C4" r:id="rId5" display="http://www.59600.com/games/412/index.html"/>
-    <hyperlink ref="C3" r:id="rId6" display="http://bookor.59600.com/games/8696232/index.html"/>
-    <hyperlink ref="C2" r:id="rId7" display="http://bookor.59600.com/games/8696229/index.html"/>
+    <hyperlink ref="C10" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
+    <hyperlink ref="C4" r:id="rId5"/>
+    <hyperlink ref="C3" r:id="rId6"/>
+    <hyperlink ref="C2" r:id="rId7"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="20.625" customWidth="1"/>
@@ -2581,7 +2015,7 @@
     <col min="4" max="4" width="36.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2598,7 +2032,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" ht="32.25" customHeight="1" spans="1:4">
+    <row r="2" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>9234</v>
       </c>
@@ -2613,25 +2047,24 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="http://www.h5uc.com/game-9234.html"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="14.25" customWidth="1"/>
@@ -2640,7 +2073,7 @@
     <col min="5" max="5" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2657,7 +2090,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>10000014</v>
       </c>
@@ -2674,7 +2107,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>10000025</v>
       </c>
@@ -2691,7 +2124,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>10000016</v>
       </c>
@@ -2708,7 +2141,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>10000017</v>
       </c>
@@ -2725,7 +2158,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>10000018</v>
       </c>
@@ -2742,7 +2175,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>10000019</v>
       </c>
@@ -2759,7 +2192,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>10000020</v>
       </c>
@@ -2776,7 +2209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>10000021</v>
       </c>
@@ -2793,7 +2226,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>10000022</v>
       </c>
@@ -2810,7 +2243,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10000023</v>
       </c>
@@ -2827,7 +2260,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10000024</v>
       </c>
@@ -2845,31 +2278,30 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="17.375" customWidth="1"/>
     <col min="4" max="4" width="17.25" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="5" max="5" width="75.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2886,7 +2318,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>10000033</v>
       </c>
@@ -2907,28 +2339,28 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>10000002</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
+        <v>10000034</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>106</v>
+      <c r="D3" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>10000003</v>
       </c>
@@ -2942,14 +2374,14 @@
         <v>12</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>10000004</v>
       </c>
@@ -2963,14 +2395,14 @@
         <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>10000005</v>
       </c>
@@ -2984,14 +2416,14 @@
         <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>10000006</v>
       </c>
@@ -3005,14 +2437,14 @@
         <v>18</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>10000007</v>
       </c>
@@ -3026,14 +2458,14 @@
         <v>20</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>10000008</v>
       </c>
@@ -3047,7 +2479,7 @@
         <v>22</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -3055,23 +2487,25 @@
       <c r="I9" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="$A9:$XFD9"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="17.25" customWidth="1"/>
@@ -3080,7 +2514,7 @@
     <col min="5" max="5" width="37.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3097,7 +2531,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>10000008</v>
       </c>
@@ -3111,14 +2545,14 @@
         <v>22</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>10000009</v>
       </c>
@@ -3132,14 +2566,14 @@
         <v>24</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>10000010</v>
       </c>
@@ -3153,14 +2587,14 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>10000011</v>
       </c>
@@ -3174,14 +2608,14 @@
         <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>10000012</v>
       </c>
@@ -3195,14 +2629,14 @@
         <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" ht="16.5" spans="1:9">
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>10000013</v>
       </c>
@@ -3216,14 +2650,14 @@
         <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>10000014</v>
       </c>
@@ -3244,7 +2678,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="16.5" spans="1:5">
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>10000025</v>
       </c>
@@ -3261,7 +2695,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>10000016</v>
       </c>
@@ -3282,7 +2716,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10000017</v>
       </c>
@@ -3303,7 +2737,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10000018</v>
       </c>
@@ -3324,7 +2758,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>10000019</v>
       </c>
@@ -3345,7 +2779,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>10000020</v>
       </c>
@@ -3366,7 +2800,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>10000021</v>
       </c>
@@ -3387,7 +2821,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
         <v>10000022</v>
       </c>
@@ -3409,30 +2843,29 @@
       <c r="I16" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
-    <col min="5" max="5" width="31.5" customWidth="1"/>
+    <col min="5" max="5" width="89.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3449,7 +2882,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>10000033</v>
       </c>
@@ -3470,7 +2903,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" ht="16.5" spans="1:5">
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>10000025</v>
       </c>
@@ -3487,7 +2920,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>10000016</v>
       </c>
@@ -3504,24 +2937,28 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>10000017</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>10000034</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="D5" s="26" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>10000018</v>
       </c>
@@ -3538,7 +2975,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>10000019</v>
       </c>
@@ -3555,7 +2992,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>10000020</v>
       </c>
@@ -3572,7 +3009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>10000021</v>
       </c>
@@ -3589,7 +3026,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>10000022</v>
       </c>
@@ -3606,7 +3043,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>10000023</v>
       </c>
@@ -3623,7 +3060,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>10000024</v>
       </c>
@@ -3640,27 +3077,29 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="D13" s="4"/>
       <c r="E13" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.25" customWidth="1"/>
     <col min="2" max="2" width="24.875" customWidth="1"/>
@@ -3669,7 +3108,7 @@
     <col min="5" max="5" width="53.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3686,7 +3125,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <v>10000031</v>
       </c>
@@ -3700,14 +3139,14 @@
         <v>75</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" s="2" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <v>10000032</v>
       </c>
@@ -3721,7 +3160,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -3729,21 +3168,20 @@
       <c r="I3" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.875" customWidth="1"/>
     <col min="2" max="2" width="32.375" customWidth="1"/>
@@ -3753,7 +3191,7 @@
     <col min="6" max="6" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.25" spans="1:5">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="20.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3770,7 +3208,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" ht="27" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>10000033</v>
       </c>
@@ -3791,7 +3229,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>10000024</v>
       </c>
@@ -3805,14 +3243,14 @@
         <v>58</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" ht="16.5" spans="1:9">
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>10000025</v>
       </c>
@@ -3833,7 +3271,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>10000026</v>
       </c>
@@ -3847,14 +3285,14 @@
         <v>65</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>10000027</v>
       </c>
@@ -3868,14 +3306,14 @@
         <v>67</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>10000028</v>
       </c>
@@ -3889,14 +3327,14 @@
         <v>69</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>10000029</v>
       </c>
@@ -3910,35 +3348,35 @@
         <v>71</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" ht="27" customHeight="1" spans="1:9">
+    <row r="9" spans="1:9" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>10000030</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>72</v>
+        <v>10000034</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>124</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="26" t="s">
         <v>125</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>127</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
+    <row r="10" spans="1:9" s="2" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <v>10000031</v>
       </c>
@@ -3952,14 +3390,14 @@
         <v>75</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="31" customHeight="1" spans="1:9">
+    <row r="11" spans="1:9" s="2" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <v>10000032</v>
       </c>
@@ -3973,7 +3411,7 @@
         <v>78</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -3981,7 +3419,10 @@
       <c r="I11" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>